--- a/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)2.xlsx
+++ b/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)2.xlsx
@@ -5,25 +5,27 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svp31\Desktop\kurs nt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svp31\Desktop\kurs nt\git\xset\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE673C06-FC60-4181-B472-BC63578B1BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5696516D-77AC-4740-9E94-2DBCE69504E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="6" r:id="rId1"/>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="7" r:id="rId3"/>
-    <sheet name="Соответствие" sheetId="4" r:id="rId4"/>
-    <sheet name="SummaryReport" sheetId="5" r:id="rId5"/>
+    <sheet name="Соответствие" sheetId="4" r:id="rId3"/>
+    <sheet name="SummaryReport" sheetId="5" r:id="rId4"/>
+    <sheet name="SummaryReport_L0" sheetId="9" r:id="rId5"/>
     <sheet name="Результаты всех тестов" sheetId="2" r:id="rId6"/>
+    <sheet name="Лист3" sheetId="8" r:id="rId7"/>
+    <sheet name="Лист2" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -235,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="131">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -613,22 +615,63 @@
   </si>
   <si>
     <t>UC6_register</t>
+  </si>
+  <si>
+    <t>ступень</t>
+  </si>
+  <si>
+    <t>Total </t>
+  </si>
+  <si>
+    <t>Per second </t>
+  </si>
+  <si>
+    <t>Тест проверки максимума</t>
+  </si>
+  <si>
+    <t>Расчетная интенсивность запросов / 1 час</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -912,6 +955,35 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6C6C6C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF6C6C6C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="42">
@@ -1523,73 +1595,133 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1627,9 +1759,26 @@
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1687,67 +1836,50 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1756,16 +1888,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1775,28 +1907,28 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
@@ -1805,14 +1937,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1824,12 +1956,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="126"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="146"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="126"/>
     <xf numFmtId="165" fontId="0" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1840,6 +1971,13 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="38" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1849,9 +1987,11 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="223"/>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="243">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1 10" xfId="225" xr:uid="{C4096CC6-5415-4630-8806-11C8898A33A6}"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 2 2" xfId="171" xr:uid="{144E7AF9-F5C5-42BD-8073-928AF7841A08}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{95C30DF6-799A-46AE-9322-FF3DE2C815DF}"/>
@@ -1859,7 +1999,10 @@
     <cellStyle name="20% — акцент1 5" xfId="108" xr:uid="{3D0D061C-574D-4F11-A5EC-C426864CF323}"/>
     <cellStyle name="20% — акцент1 6" xfId="128" xr:uid="{47A9F014-A5A2-4CF0-B1BB-46BE8E22368E}"/>
     <cellStyle name="20% — акцент1 7" xfId="148" xr:uid="{4F685B36-D388-4639-B562-D724428A9DDE}"/>
+    <cellStyle name="20% — акцент1 8" xfId="185" xr:uid="{A1710EA0-67D2-4D6E-8CE8-E9F8580A3962}"/>
+    <cellStyle name="20% — акцент1 9" xfId="205" xr:uid="{9AC5E1C6-EF6E-4906-BC57-01C69E273969}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2 10" xfId="228" xr:uid="{B9FAB50D-52B8-4834-92A3-6C7B7053664A}"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% — акцент2 2 2" xfId="173" xr:uid="{27A56DB3-C818-4B86-B7FA-1AFDE1ADD182}"/>
     <cellStyle name="20% — акцент2 3" xfId="71" xr:uid="{2DA0A3D4-34D3-4823-BA40-EF3FD049445E}"/>
@@ -1867,7 +2010,10 @@
     <cellStyle name="20% — акцент2 5" xfId="111" xr:uid="{005185CF-7B73-4FA0-B8A8-977A7497BBAF}"/>
     <cellStyle name="20% — акцент2 6" xfId="131" xr:uid="{354E18E4-C70F-47F5-B9FD-8BA108118452}"/>
     <cellStyle name="20% — акцент2 7" xfId="151" xr:uid="{E6CAD885-D0F4-4061-A56C-4410B3197381}"/>
+    <cellStyle name="20% — акцент2 8" xfId="188" xr:uid="{5BC80509-2631-479B-A2B8-57F8BE184119}"/>
+    <cellStyle name="20% — акцент2 9" xfId="208" xr:uid="{16E99BE4-C9BC-426B-B027-215BF63AD000}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3 10" xfId="231" xr:uid="{09821C50-BCD6-4249-A706-5526EB28DAD2}"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент3 2 2" xfId="175" xr:uid="{EC248B9C-2F19-4EE3-A7FD-2AA4976F644D}"/>
     <cellStyle name="20% — акцент3 3" xfId="74" xr:uid="{C90B4149-7A40-49B2-BBA8-3B4EFA22448D}"/>
@@ -1875,7 +2021,10 @@
     <cellStyle name="20% — акцент3 5" xfId="114" xr:uid="{A90312AF-52CE-44B1-8433-8AD4343D258A}"/>
     <cellStyle name="20% — акцент3 6" xfId="134" xr:uid="{4020AF2D-5512-4500-A9EC-AFA967033B8A}"/>
     <cellStyle name="20% — акцент3 7" xfId="154" xr:uid="{A2832CFC-72EF-4F17-A225-67647ADCFDB7}"/>
+    <cellStyle name="20% — акцент3 8" xfId="191" xr:uid="{F4E42721-ED56-4CC7-9649-2AC04E5FE46D}"/>
+    <cellStyle name="20% — акцент3 9" xfId="211" xr:uid="{9E20F04E-7F44-4DAE-91BB-874A1C594280}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4 10" xfId="234" xr:uid="{19B7F22E-8AC8-43FC-A6FB-E7145E97FA9E}"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент4 2 2" xfId="177" xr:uid="{23FC683B-A1A6-4667-85DE-B6B84038AD70}"/>
     <cellStyle name="20% — акцент4 3" xfId="77" xr:uid="{A3238FAF-0EE9-4031-8CC0-86D444EE2BA8}"/>
@@ -1883,7 +2032,10 @@
     <cellStyle name="20% — акцент4 5" xfId="117" xr:uid="{C2E2EADA-6228-48B2-ABE1-F725D368C808}"/>
     <cellStyle name="20% — акцент4 6" xfId="137" xr:uid="{09E482B6-150E-4F35-B72F-EE789F9407D7}"/>
     <cellStyle name="20% — акцент4 7" xfId="157" xr:uid="{D548CAFB-E0F8-406D-B172-EA7619681251}"/>
+    <cellStyle name="20% — акцент4 8" xfId="194" xr:uid="{FE964174-0D7F-4120-8C7F-F1E146E9E879}"/>
+    <cellStyle name="20% — акцент4 9" xfId="214" xr:uid="{330887CB-56EA-4288-9E02-1C46A05BC2EE}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5 10" xfId="237" xr:uid="{3F442A06-222C-44EF-97D2-7267AAB79041}"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% — акцент5 2 2" xfId="179" xr:uid="{28D40AF6-20AB-4863-9487-2649CB422A48}"/>
     <cellStyle name="20% — акцент5 3" xfId="80" xr:uid="{6CFDC12F-0671-454D-85DD-73A01DBF0DB5}"/>
@@ -1891,7 +2043,10 @@
     <cellStyle name="20% — акцент5 5" xfId="120" xr:uid="{B02F83F1-3C71-4961-9C70-A0E392B9DC6A}"/>
     <cellStyle name="20% — акцент5 6" xfId="140" xr:uid="{866BA263-B371-47B8-9102-B39E72A13209}"/>
     <cellStyle name="20% — акцент5 7" xfId="160" xr:uid="{AB965D10-C9F2-4CBC-8A50-EA1678A8E7AE}"/>
+    <cellStyle name="20% — акцент5 8" xfId="197" xr:uid="{BD0B02EF-FA71-41A1-BA6F-2BA1409EB531}"/>
+    <cellStyle name="20% — акцент5 9" xfId="217" xr:uid="{4A1ECB84-9EA0-482F-A3A4-1F8B16FF2494}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6 10" xfId="240" xr:uid="{8C95E38E-845D-4857-8B09-00F1FDA7643F}"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент6 2 2" xfId="181" xr:uid="{9E10323F-3D21-4624-A67C-8F6B3CD2E0FE}"/>
     <cellStyle name="20% — акцент6 3" xfId="83" xr:uid="{DBB50A3B-B26A-47BD-B077-6459E27FFC8B}"/>
@@ -1899,7 +2054,10 @@
     <cellStyle name="20% — акцент6 5" xfId="123" xr:uid="{72AB46E3-561D-4B93-A4A9-DFE2DF6B9205}"/>
     <cellStyle name="20% — акцент6 6" xfId="143" xr:uid="{B49A87C2-4590-41D6-ADF5-4D315ACCBA01}"/>
     <cellStyle name="20% — акцент6 7" xfId="164" xr:uid="{86D0A11D-850F-49EB-949D-41D4F01A6624}"/>
+    <cellStyle name="20% — акцент6 8" xfId="200" xr:uid="{00AEE662-2FB4-4F45-BDC2-E95049951104}"/>
+    <cellStyle name="20% — акцент6 9" xfId="220" xr:uid="{385B119B-A3F5-4D21-ADF8-B9D47A296A60}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1 10" xfId="226" xr:uid="{D6757103-C99E-4CE7-A70D-A2329D097CCA}"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% — акцент1 2 2" xfId="172" xr:uid="{0D333668-5F48-403D-9695-23C1531C1DCF}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{5126EFD0-07AE-40A7-8C96-AD71D96362CD}"/>
@@ -1907,7 +2065,10 @@
     <cellStyle name="40% — акцент1 5" xfId="109" xr:uid="{61AB7947-88C2-4D32-810C-606F1DA2084D}"/>
     <cellStyle name="40% — акцент1 6" xfId="129" xr:uid="{BE3F50C5-8FC4-47F6-9467-2D761DDA165E}"/>
     <cellStyle name="40% — акцент1 7" xfId="149" xr:uid="{650C9B78-6987-41B9-8A1A-8DE3FE75C245}"/>
+    <cellStyle name="40% — акцент1 8" xfId="186" xr:uid="{9CACD150-92D3-4DD3-A75B-EA81D4368379}"/>
+    <cellStyle name="40% — акцент1 9" xfId="206" xr:uid="{CC1C98D6-4B64-47A6-963E-E897F2939F24}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2 10" xfId="229" xr:uid="{187C2DD6-6D60-4CA1-B1F5-56FD79C7B0CA}"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% — акцент2 2 2" xfId="174" xr:uid="{679082D5-E52D-4151-B8F1-CE4218395987}"/>
     <cellStyle name="40% — акцент2 3" xfId="72" xr:uid="{51DC5AC2-FAA8-4CC9-AD72-61C762633E3D}"/>
@@ -1915,7 +2076,10 @@
     <cellStyle name="40% — акцент2 5" xfId="112" xr:uid="{0A8200AB-28A7-4F9E-AF00-21FF832114D1}"/>
     <cellStyle name="40% — акцент2 6" xfId="132" xr:uid="{9B3DD223-8A2D-4110-9114-275FB9A90547}"/>
     <cellStyle name="40% — акцент2 7" xfId="152" xr:uid="{8C778DD3-6837-4043-A834-0B99358832F1}"/>
+    <cellStyle name="40% — акцент2 8" xfId="189" xr:uid="{1294A11D-2689-408C-A2C8-5E11F77166F7}"/>
+    <cellStyle name="40% — акцент2 9" xfId="209" xr:uid="{FC44938E-D9DE-4032-9427-D85DFE2166D9}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3 10" xfId="232" xr:uid="{0698E95C-18F7-49FE-9854-77533A5A9141}"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% — акцент3 2 2" xfId="176" xr:uid="{17B436A7-0F06-4777-83D1-8E0A54980666}"/>
     <cellStyle name="40% — акцент3 3" xfId="75" xr:uid="{BA6CDF79-D674-443E-8796-2650AA929FD7}"/>
@@ -1923,7 +2087,10 @@
     <cellStyle name="40% — акцент3 5" xfId="115" xr:uid="{B203F0F7-5A56-41C4-BD86-BB452CAB840E}"/>
     <cellStyle name="40% — акцент3 6" xfId="135" xr:uid="{D31D3F20-DFAF-4ED3-A6B2-EDA5B778AA03}"/>
     <cellStyle name="40% — акцент3 7" xfId="155" xr:uid="{1C246EBC-8C05-4737-8779-BCA473F21FF0}"/>
+    <cellStyle name="40% — акцент3 8" xfId="192" xr:uid="{C0871528-F337-4696-A60B-3F4F319DE6EC}"/>
+    <cellStyle name="40% — акцент3 9" xfId="212" xr:uid="{5F897B48-00A2-4871-8534-1A3EC7097F88}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4 10" xfId="235" xr:uid="{B7F540BA-5FD7-4B38-9ED7-CE75F3E422FD}"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент4 2 2" xfId="178" xr:uid="{6B3A2F7E-E14C-42E2-8973-62ADD8779D08}"/>
     <cellStyle name="40% — акцент4 3" xfId="78" xr:uid="{53C7AAD3-9C1B-4802-96BD-2DD55898E1EE}"/>
@@ -1931,7 +2098,10 @@
     <cellStyle name="40% — акцент4 5" xfId="118" xr:uid="{47B234EA-7842-4157-A00F-F7A04B19BAC2}"/>
     <cellStyle name="40% — акцент4 6" xfId="138" xr:uid="{F90A2409-DEF5-4F0C-BC38-4FC6B680DA1B}"/>
     <cellStyle name="40% — акцент4 7" xfId="158" xr:uid="{C4E802D4-A0DE-4A67-B132-6F7166AC4AA2}"/>
+    <cellStyle name="40% — акцент4 8" xfId="195" xr:uid="{1230EC34-2FED-4666-A44F-89EEF8275598}"/>
+    <cellStyle name="40% — акцент4 9" xfId="215" xr:uid="{169072C1-995F-4558-81DF-67974808E518}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5 10" xfId="238" xr:uid="{6B63132C-883B-48EF-96E7-0EEEA66A473E}"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% — акцент5 2 2" xfId="180" xr:uid="{E40F0470-283F-4EA8-8A51-44CB8CC56AC9}"/>
     <cellStyle name="40% — акцент5 3" xfId="81" xr:uid="{DC138F03-C924-4836-8734-82313DD9F3B8}"/>
@@ -1939,7 +2109,10 @@
     <cellStyle name="40% — акцент5 5" xfId="121" xr:uid="{CE2C71F2-2827-4792-9D46-95F33AB611C0}"/>
     <cellStyle name="40% — акцент5 6" xfId="141" xr:uid="{1F3C5D80-A645-4D9A-83E6-2F77D7292053}"/>
     <cellStyle name="40% — акцент5 7" xfId="161" xr:uid="{1D5F1B29-9837-4AF4-8911-C7EB565A31BA}"/>
+    <cellStyle name="40% — акцент5 8" xfId="198" xr:uid="{5E193597-10F4-46F5-9A25-F52A109A02E5}"/>
+    <cellStyle name="40% — акцент5 9" xfId="218" xr:uid="{5B705812-4CCD-4196-A645-336451B511E2}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6 10" xfId="241" xr:uid="{1EBB9B44-CAD2-4D12-80D6-19A978A12B91}"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент6 2 2" xfId="182" xr:uid="{9AB4D18E-AD22-4690-9E80-1B79389600D2}"/>
     <cellStyle name="40% — акцент6 3" xfId="84" xr:uid="{9FED3EDB-6DA0-4D02-A115-BD5D8A698173}"/>
@@ -1947,48 +2120,68 @@
     <cellStyle name="40% — акцент6 5" xfId="124" xr:uid="{5144D457-2715-456A-B301-F15A817C8BB2}"/>
     <cellStyle name="40% — акцент6 6" xfId="144" xr:uid="{9F4F4EE8-D10E-4C4F-B61E-05F6B3D85ED4}"/>
     <cellStyle name="40% — акцент6 7" xfId="165" xr:uid="{C312D5E5-1829-475D-ABC2-EBDDCD262E9A}"/>
+    <cellStyle name="40% — акцент6 8" xfId="201" xr:uid="{1E74D1E3-A06F-437C-8E41-730AA5E70893}"/>
+    <cellStyle name="40% — акцент6 9" xfId="221" xr:uid="{0A6C3895-99C2-469D-BD23-797EABD0FDCE}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1 10" xfId="227" xr:uid="{E447C01D-0D42-43B3-ADD3-FD9CB3C6F746}"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="70" xr:uid="{D72183C5-2364-45E8-9BAE-5D6DA8E801E7}"/>
     <cellStyle name="60% — акцент1 4" xfId="90" xr:uid="{35F7BF58-A28D-4E25-95BC-FD7CDC920BC0}"/>
     <cellStyle name="60% — акцент1 5" xfId="110" xr:uid="{F706B15F-2ED0-43B1-B41C-DAA82AFEF6FF}"/>
     <cellStyle name="60% — акцент1 6" xfId="130" xr:uid="{EAC8C798-5CBA-431E-8210-0E63C1E9AAE1}"/>
     <cellStyle name="60% — акцент1 7" xfId="150" xr:uid="{3B595C8E-EC6C-411D-A741-06E2375E7D1C}"/>
+    <cellStyle name="60% — акцент1 8" xfId="187" xr:uid="{8E781191-1A41-49F0-8179-6A4EADEC84E1}"/>
+    <cellStyle name="60% — акцент1 9" xfId="207" xr:uid="{5EFDB01A-D770-458B-86FD-2F42FFA31DB4}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2 10" xfId="230" xr:uid="{FF82C02A-41D6-40F6-B5C8-10D97C6B6C7A}"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="73" xr:uid="{EA468067-05BF-4A57-A14D-939BD5867CC5}"/>
     <cellStyle name="60% — акцент2 4" xfId="93" xr:uid="{1B1EE878-5831-4F65-9E65-295F31D423AC}"/>
     <cellStyle name="60% — акцент2 5" xfId="113" xr:uid="{C2337967-DC36-4EE5-99C9-E01ACE49D55B}"/>
     <cellStyle name="60% — акцент2 6" xfId="133" xr:uid="{9C2D7E52-63A8-43CE-869E-16AE6EACAD52}"/>
     <cellStyle name="60% — акцент2 7" xfId="153" xr:uid="{76E700BB-025F-41B0-9051-C149048C68F4}"/>
+    <cellStyle name="60% — акцент2 8" xfId="190" xr:uid="{58C0FEF9-055C-42DC-87CA-FA6556C98C68}"/>
+    <cellStyle name="60% — акцент2 9" xfId="210" xr:uid="{E3DA3D21-3FD1-4C56-9DFE-5C8EEFF6F707}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3 10" xfId="233" xr:uid="{F695D893-4383-49F4-A497-E3FA917E1FF6}"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="76" xr:uid="{992E7137-D283-4FFC-990D-0488488C4E52}"/>
     <cellStyle name="60% — акцент3 4" xfId="96" xr:uid="{D9915A8A-B524-4B85-AE9E-758B9B6F1988}"/>
     <cellStyle name="60% — акцент3 5" xfId="116" xr:uid="{DE4F5C3C-A9F3-41AE-A0CB-08F0CDF3BE18}"/>
     <cellStyle name="60% — акцент3 6" xfId="136" xr:uid="{94F7E49B-5EE0-45D7-A204-CED39DBD7105}"/>
     <cellStyle name="60% — акцент3 7" xfId="156" xr:uid="{DE57E9BB-51D3-4148-9310-68E707912C0C}"/>
+    <cellStyle name="60% — акцент3 8" xfId="193" xr:uid="{65B7C00E-B9CB-4AB3-A493-BD342FDC4A87}"/>
+    <cellStyle name="60% — акцент3 9" xfId="213" xr:uid="{05E45FFB-84A3-4B42-9A1D-8A0D78FD67D2}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4 10" xfId="236" xr:uid="{1E496427-4027-4A84-A311-3CBFFEF30553}"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="79" xr:uid="{210BAF94-0139-4D70-8EDF-34FC7A1EF722}"/>
     <cellStyle name="60% — акцент4 4" xfId="99" xr:uid="{A5089FBD-1B90-43CF-9168-8413442C1962}"/>
     <cellStyle name="60% — акцент4 5" xfId="119" xr:uid="{5CF6095F-C471-4471-A536-8216426E7752}"/>
     <cellStyle name="60% — акцент4 6" xfId="139" xr:uid="{3E256BCB-7579-42CE-B217-CF61B33DC116}"/>
     <cellStyle name="60% — акцент4 7" xfId="159" xr:uid="{DDFDE65B-E590-4D7B-80D2-148DAD4C5FF0}"/>
+    <cellStyle name="60% — акцент4 8" xfId="196" xr:uid="{249037DD-EA43-427E-ACE8-77EBC58AF752}"/>
+    <cellStyle name="60% — акцент4 9" xfId="216" xr:uid="{8DE69F5C-AA49-4B05-8A67-8B98C9345A04}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5 10" xfId="239" xr:uid="{3764C730-5D00-4E53-8739-B27A3BA01272}"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="82" xr:uid="{1CF840C5-FCAF-4769-AA2E-56A2A9FABDBF}"/>
     <cellStyle name="60% — акцент5 4" xfId="102" xr:uid="{8F14EE2B-AD48-4A3D-A72C-F0DD86F09DEF}"/>
     <cellStyle name="60% — акцент5 5" xfId="122" xr:uid="{E479F9E4-9620-4CB4-A42D-DEBCD5382241}"/>
     <cellStyle name="60% — акцент5 6" xfId="142" xr:uid="{694B4C04-4FBE-4DB2-8DDE-7389EA2C11FE}"/>
     <cellStyle name="60% — акцент5 7" xfId="162" xr:uid="{E7A40D54-E827-4269-A28D-198FC37367EF}"/>
+    <cellStyle name="60% — акцент5 8" xfId="199" xr:uid="{90C8F986-D351-404F-96C4-A58089718B3F}"/>
+    <cellStyle name="60% — акцент5 9" xfId="219" xr:uid="{C766934A-6238-478B-958E-27E6B0327C0A}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6 10" xfId="242" xr:uid="{DAC3341F-6285-4327-800D-56A7EE54036C}"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="85" xr:uid="{75BF419A-0534-4452-98EA-61ABE8A6466A}"/>
     <cellStyle name="60% — акцент6 4" xfId="105" xr:uid="{DF931EE7-201B-4475-A672-22FEAF243339}"/>
     <cellStyle name="60% — акцент6 5" xfId="125" xr:uid="{DD1EC5DE-209B-4BE3-884D-684F050FB5EF}"/>
     <cellStyle name="60% — акцент6 6" xfId="145" xr:uid="{688B4E4F-65FE-41B7-8BB4-745DD68E1080}"/>
     <cellStyle name="60% — акцент6 7" xfId="166" xr:uid="{5906A52D-E7B7-49B5-9190-536DD57E4126}"/>
+    <cellStyle name="60% — акцент6 8" xfId="202" xr:uid="{9F9300ED-C37A-4F9C-B823-38B63CF714D2}"/>
+    <cellStyle name="60% — акцент6 9" xfId="222" xr:uid="{80F65E48-38AF-4D64-9BDD-C00E149F21CA}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2008,6 +2201,9 @@
     <cellStyle name="Нейтральный" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Нейтральный 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 10" xfId="183" xr:uid="{1731A759-F09B-47B4-90E7-FC71596DD9B9}"/>
+    <cellStyle name="Обычный 11" xfId="203" xr:uid="{BBCB6053-5D78-4026-8F76-AF5ACFA3EB10}"/>
+    <cellStyle name="Обычный 12" xfId="223" xr:uid="{ABF31AE2-5240-470B-9A01-36AF3986DC9C}"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Обычный 2 2" xfId="163" xr:uid="{732026BE-6E1A-41F8-B00E-7A1D686E0960}"/>
     <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
@@ -2021,6 +2217,8 @@
     <cellStyle name="Обычный 9" xfId="146" xr:uid="{D94C44ED-715F-4C25-85A4-B7DACFC74FB0}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание 10" xfId="204" xr:uid="{4BAEAB45-2126-4152-BC23-55FC028C4DDD}"/>
+    <cellStyle name="Примечание 11" xfId="224" xr:uid="{CCD7AA48-6357-4DB5-A8FC-94CDA8794710}"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Примечание 2 2" xfId="168" xr:uid="{13F6CE95-AF9C-46DC-A67B-6B9855549B90}"/>
     <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
@@ -2030,6 +2228,7 @@
     <cellStyle name="Примечание 6" xfId="107" xr:uid="{EAC94006-A389-416C-86E9-5090512AC3E3}"/>
     <cellStyle name="Примечание 7" xfId="127" xr:uid="{8DE64067-1D13-4A9E-94E4-A0A3E2ECA5C7}"/>
     <cellStyle name="Примечание 8" xfId="147" xr:uid="{130CF465-56A6-4A8B-A717-6ECD0BACA8F4}"/>
+    <cellStyle name="Примечание 9" xfId="184" xr:uid="{0FC10049-DA9F-47FD-9450-663277D5D755}"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -2086,10 +2285,10 @@
       <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="169" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4140,8 +4339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:C49"/>
+    <sheetView topLeftCell="G36" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,7 +4355,7 @@
     <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="23.85546875" customWidth="1"/>
     <col min="13" max="13" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" customWidth="1"/>
@@ -5510,14 +5709,18 @@
         <v>13.186813186813186</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="76"/>
-    </row>
-    <row r="36" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="82"/>
+    </row>
+    <row r="36" spans="1:14" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>78</v>
       </c>
@@ -5543,8 +5746,20 @@
       <c r="I36" s="28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="K36" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>63</v>
       </c>
@@ -5569,15 +5784,31 @@
         <v>171.0325433138664</v>
       </c>
       <c r="H37" s="42">
-        <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
-        <v>171</v>
-      </c>
-      <c r="I37" s="25">
+        <f>VLOOKUP(K37,SummaryReport!A:J,8,FALSE)</f>
+        <v>2054</v>
+      </c>
+      <c r="I37" s="80">
         <f>1-G37/H37</f>
-        <v>-1.9031177699657675E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>0.9167319652804935</v>
+      </c>
+      <c r="K37" s="46" t="str">
+        <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
+        <v>open_home_page</v>
+      </c>
+      <c r="L37" s="78">
+        <f>C37*4</f>
+        <v>2052.3905197663967</v>
+      </c>
+      <c r="M37">
+        <f>VLOOKUP(F37,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>2054</v>
+      </c>
+      <c r="N37" s="79">
+        <f>1-L37/H37</f>
+        <v>7.8358336592176947E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>0</v>
       </c>
@@ -5603,14 +5834,30 @@
       </c>
       <c r="H38" s="42">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
-        <v>138</v>
+        <v>1664</v>
       </c>
       <c r="I38" s="25">
         <f>1-G38/H38</f>
-        <v>-4.3486295756085536E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>0.91670666413375357</v>
+      </c>
+      <c r="K38" s="46" t="str">
+        <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
+        <v>enter_login</v>
+      </c>
+      <c r="L38" s="78">
+        <f t="shared" ref="L38:L48" si="29">C38*4</f>
+        <v>1663.2013305772077</v>
+      </c>
+      <c r="M38">
+        <f>VLOOKUP(F38,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>1664</v>
+      </c>
+      <c r="N38" s="79">
+        <f>1-L38/H38</f>
+        <v>4.7996960504348429E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>77</v>
       </c>
@@ -5636,14 +5883,30 @@
       </c>
       <c r="H39" s="42">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
-        <v>105</v>
+        <v>1256</v>
       </c>
       <c r="I39" s="25">
         <f>1-G39/H39</f>
-        <v>3.8084677958669655E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>0.91671965694153346</v>
+      </c>
+      <c r="K39" s="46" t="str">
+        <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
+        <v>click_flights</v>
+      </c>
+      <c r="L39" s="78">
+        <f t="shared" si="29"/>
+        <v>1255.2013305772075</v>
+      </c>
+      <c r="M39">
+        <f>VLOOKUP(F39,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>1256</v>
+      </c>
+      <c r="N39" s="79">
+        <f>1-L39/H39</f>
+        <v>6.35883298401696E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>1</v>
       </c>
@@ -5669,14 +5932,30 @@
       </c>
       <c r="H40" s="42">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>92</v>
+        <v>1096</v>
       </c>
       <c r="I40" s="25">
-        <f t="shared" ref="I40:I48" si="29">1-G40/H40</f>
-        <v>6.3771989715132316E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I40:I48" si="30">1-G40/H40</f>
+        <v>0.9165937064830102</v>
+      </c>
+      <c r="K40" s="46" t="str">
+        <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
+        <v>search_tickets</v>
+      </c>
+      <c r="L40" s="78">
+        <f t="shared" si="29"/>
+        <v>1096.9595723354494</v>
+      </c>
+      <c r="M40">
+        <f>VLOOKUP(F40,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>1096</v>
+      </c>
+      <c r="N40" s="79">
+        <f>1-L40/H40</f>
+        <v>-8.7552220387721036E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>12</v>
       </c>
@@ -5702,14 +5981,30 @@
       </c>
       <c r="H41" s="42">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>92</v>
+        <v>1095</v>
       </c>
       <c r="I41" s="25">
+        <f t="shared" si="30"/>
+        <v>0.91651753635194444</v>
+      </c>
+      <c r="K41" s="46" t="str">
+        <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
+        <v>choose_ticket</v>
+      </c>
+      <c r="L41" s="78">
         <f t="shared" si="29"/>
-        <v>6.3771989715132316E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1096.9595723354494</v>
+      </c>
+      <c r="M41">
+        <f>VLOOKUP(F41,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>1095</v>
+      </c>
+      <c r="N41" s="79">
+        <f>1-L41/H41</f>
+        <v>-1.7895637766660588E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>3</v>
       </c>
@@ -5735,14 +6030,30 @@
       </c>
       <c r="H42" s="42">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>58</v>
+        <v>703</v>
       </c>
       <c r="I42" s="25">
+        <f t="shared" si="30"/>
+        <v>0.91673316448669462</v>
+      </c>
+      <c r="K42" s="46" t="str">
+        <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
+        <v>payment</v>
+      </c>
+      <c r="L42" s="78">
         <f t="shared" si="29"/>
-        <v>-9.251471825062918E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>702.43902439024384</v>
+      </c>
+      <c r="M42">
+        <f>VLOOKUP(F42,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>703</v>
+      </c>
+      <c r="N42" s="79">
+        <f>1-L42/H42</f>
+        <v>7.9797384033597485E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>4</v>
       </c>
@@ -5768,14 +6079,30 @@
       </c>
       <c r="H43" s="42">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>95</v>
+        <v>1150</v>
       </c>
       <c r="I43" s="25">
+        <f t="shared" si="30"/>
+        <v>0.91676226212811573</v>
+      </c>
+      <c r="K43" s="46" t="str">
+        <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
+        <v>click_itinerary</v>
+      </c>
+      <c r="L43" s="78">
         <f t="shared" si="29"/>
-        <v>-7.6147216070192592E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1148.6807826320021</v>
+      </c>
+      <c r="M43">
+        <f>VLOOKUP(F43,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>1150</v>
+      </c>
+      <c r="N43" s="79">
+        <f>1-L43/H43</f>
+        <v>1.1471455373894823E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>13</v>
       </c>
@@ -5801,14 +6128,30 @@
       </c>
       <c r="H44" s="42">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="I44" s="25">
+        <f t="shared" si="30"/>
+        <v>0.91578947368421049</v>
+      </c>
+      <c r="K44" s="46" t="str">
+        <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
+        <v>delete_ticket</v>
+      </c>
+      <c r="L44" s="78">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="M44">
+        <f>VLOOKUP(F44,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>285</v>
+      </c>
+      <c r="N44" s="79">
+        <f>1-L44/H44</f>
+        <v>-1.0526315789473717E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>6</v>
       </c>
@@ -5834,14 +6177,30 @@
       </c>
       <c r="H45" s="42">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
-        <v>112</v>
+        <v>1347</v>
       </c>
       <c r="I45" s="25">
+        <f t="shared" si="30"/>
+        <v>0.91648406982330166</v>
+      </c>
+      <c r="K45" s="46" t="str">
+        <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
+        <v>logout</v>
+      </c>
+      <c r="L45" s="78">
         <f t="shared" si="29"/>
-        <v>-4.4281959643994728E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>1349.9514953761527</v>
+      </c>
+      <c r="M45">
+        <f>VLOOKUP(F45,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>1347</v>
+      </c>
+      <c r="N45" s="79">
+        <f>1-L45/H45</f>
+        <v>-2.1911621203807297E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>65</v>
       </c>
@@ -5867,14 +6226,30 @@
       </c>
       <c r="H46" s="42">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
-        <v>33</v>
+        <v>388</v>
       </c>
       <c r="I46" s="25">
+        <f t="shared" si="30"/>
+        <v>0.91641125661744216</v>
+      </c>
+      <c r="K46" s="46" t="str">
+        <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
+        <v>click_sign_up_now</v>
+      </c>
+      <c r="L46" s="78">
         <f t="shared" si="29"/>
-        <v>1.7199017199017064E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>389.18918918918922</v>
+      </c>
+      <c r="M46">
+        <f>VLOOKUP(F46,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>388</v>
+      </c>
+      <c r="N46" s="79">
+        <f>1-L46/H46</f>
+        <v>-3.0649205906938537E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>64</v>
       </c>
@@ -5900,14 +6275,30 @@
       </c>
       <c r="H47" s="42">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
-        <v>32</v>
+        <v>388</v>
       </c>
       <c r="I47" s="25">
+        <f t="shared" si="30"/>
+        <v>0.91641125661744216</v>
+      </c>
+      <c r="K47" s="46" t="str">
+        <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
+        <v>enter_Customer_Profile</v>
+      </c>
+      <c r="L47" s="78">
         <f t="shared" si="29"/>
-        <v>-1.3513513513513598E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>389.18918918918922</v>
+      </c>
+      <c r="M47">
+        <f>VLOOKUP(F47,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>388</v>
+      </c>
+      <c r="N47" s="79">
+        <f>1-L47/H47</f>
+        <v>-3.0649205906938537E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>66</v>
       </c>
@@ -5933,14 +6324,30 @@
       </c>
       <c r="H48" s="42">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>32</v>
+        <v>389</v>
       </c>
       <c r="I48" s="25">
+        <f t="shared" si="30"/>
+        <v>0.91662613770582924</v>
+      </c>
+      <c r="K48" s="46" t="str">
+        <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
+        <v>click_continue</v>
+      </c>
+      <c r="L48" s="78">
         <f t="shared" si="29"/>
-        <v>-1.3513513513513598E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>389.18918918918922</v>
+      </c>
+      <c r="M48">
+        <f>VLOOKUP(F48,SummaryReport_L0!A:J,8,FALSE)</f>
+        <v>389</v>
+      </c>
+      <c r="N48" s="79">
+        <f>1-L48/H48</f>
+        <v>-4.8634753004939135E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
         <v>7</v>
       </c>
@@ -5953,11 +6360,25 @@
         <v>2955.3377988894199</v>
       </c>
       <c r="D49" s="24">
-        <f t="shared" ref="D49" si="30">1-B49/C49</f>
+        <f t="shared" ref="D49" si="31">1-B49/C49</f>
         <v>3.83638002183051E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f>SUM(H37:H48)</f>
+        <v>11815</v>
+      </c>
+      <c r="M49">
+        <f>SUM(M37:M48)</f>
+        <v>11815</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f>H49*3</f>
+        <v>35445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C51" s="31" t="s">
         <v>76</v>
       </c>
@@ -5967,7 +6388,7 @@
       <c r="G51" s="31"/>
       <c r="H51" s="31"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>93</v>
       </c>
@@ -5990,25 +6411,25 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="71" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="72">
+      <c r="B53" s="71">
         <f>124/3</f>
         <v>41.333333333333336</v>
       </c>
       <c r="C53" s="33">
         <v>57</v>
       </c>
-      <c r="D53" s="67">
+      <c r="D53" s="66">
         <f>60/C53</f>
         <v>1.0526315789473684</v>
       </c>
-      <c r="E53" s="70">
-        <v>20</v>
-      </c>
-      <c r="F53" s="68">
+      <c r="E53" s="69">
+        <v>20</v>
+      </c>
+      <c r="F53" s="67">
         <f>B53/(D53*E53)</f>
         <v>1.9633333333333336</v>
       </c>
@@ -6025,25 +6446,25 @@
         <v>1.8333333333333202E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="71" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="72">
+      <c r="B54" s="71">
         <f>150/3</f>
         <v>50</v>
       </c>
       <c r="C54" s="33">
         <v>25</v>
       </c>
-      <c r="D54" s="67">
+      <c r="D54" s="66">
         <f>60/C54</f>
         <v>2.4</v>
       </c>
-      <c r="E54" s="70">
-        <v>20</v>
-      </c>
-      <c r="F54" s="68">
+      <c r="E54" s="69">
+        <v>20</v>
+      </c>
+      <c r="F54" s="67">
         <f>B54/(D54*E54)</f>
         <v>1.0416666666666667</v>
       </c>
@@ -6060,25 +6481,25 @@
         <v>-4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="71" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="73">
+      <c r="B55" s="72">
         <f>30/3</f>
         <v>10</v>
       </c>
-      <c r="C55" s="69">
+      <c r="C55" s="68">
         <v>115</v>
       </c>
-      <c r="D55" s="67">
+      <c r="D55" s="66">
         <f>60/C55</f>
         <v>0.52173913043478259</v>
       </c>
-      <c r="E55" s="70">
-        <v>20</v>
-      </c>
-      <c r="F55" s="68">
+      <c r="E55" s="69">
+        <v>20</v>
+      </c>
+      <c r="F55" s="67">
         <f>B55/(D55*E55)</f>
         <v>0.95833333333333337</v>
       </c>
@@ -6094,25 +6515,25 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="71" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="72">
+      <c r="B56" s="71">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
       <c r="C56" s="33">
         <v>180</v>
       </c>
-      <c r="D56" s="67">
+      <c r="D56" s="66">
         <f>60/C56</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E56" s="70">
-        <v>20</v>
-      </c>
-      <c r="F56" s="68">
+      <c r="E56" s="69">
+        <v>20</v>
+      </c>
+      <c r="F56" s="67">
         <f>B56/(D56*E56)</f>
         <v>1.0000000000000002</v>
       </c>
@@ -6128,25 +6549,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="71" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="72">
+      <c r="B57" s="71">
         <f>120/3</f>
         <v>40</v>
       </c>
       <c r="C57" s="33">
         <v>30</v>
       </c>
-      <c r="D57" s="67">
+      <c r="D57" s="66">
         <f>60/C57</f>
         <v>2</v>
       </c>
-      <c r="E57" s="70">
-        <v>20</v>
-      </c>
-      <c r="F57" s="68">
+      <c r="E57" s="69">
+        <v>20</v>
+      </c>
+      <c r="F57" s="67">
         <f>B57/(D57*E57)</f>
         <v>1</v>
       </c>
@@ -6163,13 +6584,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G58" s="19">
         <f>SUM(G53:G57)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -6198,7 +6619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -6231,7 +6652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -6239,22 +6660,22 @@
         <v>68</v>
       </c>
       <c r="C63" s="19">
-        <f t="shared" ref="C63:C87" si="31">VLOOKUP(A63,$A$53:$H$57,6,FALSE)</f>
+        <f t="shared" ref="C63:C87" si="32">VLOOKUP(A63,$A$53:$H$57,6,FALSE)</f>
         <v>1.9633333333333336</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D87" si="32">VLOOKUP(A63,$A$53:$H$57,3,FALSE)</f>
+        <f t="shared" ref="D63:D87" si="33">VLOOKUP(A63,$A$53:$H$57,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="E63" s="19">
-        <f t="shared" ref="E63:E87" si="33">60/D63</f>
+        <f t="shared" ref="E63:E87" si="34">60/D63</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F63">
         <v>20</v>
       </c>
       <c r="G63" s="19">
-        <f t="shared" ref="G63:G87" si="34">C63*E63*F63</f>
+        <f t="shared" ref="G63:G87" si="35">C63*E63*F63</f>
         <v>41.333333333333336</v>
       </c>
       <c r="I63" s="16" t="s">
@@ -6264,7 +6685,7 @@
         <v>154.66666666666669</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -6272,22 +6693,22 @@
         <v>96</v>
       </c>
       <c r="C64" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>57</v>
       </c>
       <c r="E64" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I64" s="16" t="s">
@@ -6305,25 +6726,25 @@
         <v>97</v>
       </c>
       <c r="C65" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>57</v>
       </c>
       <c r="E65" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F65">
         <v>20</v>
       </c>
       <c r="G65" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="I65" s="74" t="s">
+      <c r="I65" s="73" t="s">
         <v>100</v>
       </c>
       <c r="J65" s="19">
@@ -6338,25 +6759,25 @@
         <v>98</v>
       </c>
       <c r="C66" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>57</v>
       </c>
       <c r="E66" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F66">
         <v>20</v>
       </c>
       <c r="G66" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="I66" s="74" t="s">
+      <c r="I66" s="73" t="s">
         <v>68</v>
       </c>
       <c r="J66" s="19">
@@ -6371,22 +6792,22 @@
         <v>99</v>
       </c>
       <c r="C67" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D67">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>57</v>
       </c>
       <c r="E67" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F67">
         <v>20</v>
       </c>
       <c r="G67" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I67" s="16" t="s">
@@ -6404,25 +6825,25 @@
         <v>100</v>
       </c>
       <c r="C68" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>57</v>
       </c>
       <c r="E68" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F68">
         <v>20</v>
       </c>
       <c r="G68" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="I68" s="74" t="s">
+      <c r="I68" s="73" t="s">
         <v>99</v>
       </c>
       <c r="J68" s="19">
@@ -6437,22 +6858,22 @@
         <v>95</v>
       </c>
       <c r="C69" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>25</v>
       </c>
       <c r="E69" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.4</v>
       </c>
       <c r="F69">
         <v>20</v>
       </c>
       <c r="G69" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="I69" s="16" t="s">
@@ -6470,25 +6891,25 @@
         <v>68</v>
       </c>
       <c r="C70" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>25</v>
       </c>
       <c r="E70" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.4</v>
       </c>
       <c r="F70">
         <v>20</v>
       </c>
       <c r="G70" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
-      <c r="I70" s="74" t="s">
+      <c r="I70" s="73" t="s">
         <v>103</v>
       </c>
       <c r="J70" s="19">
@@ -6503,22 +6924,22 @@
         <v>100</v>
       </c>
       <c r="C71" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D71">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>25</v>
       </c>
       <c r="E71" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.4</v>
       </c>
       <c r="F71">
         <v>20</v>
       </c>
       <c r="G71" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="I71" s="16" t="s">
@@ -6536,22 +6957,22 @@
         <v>95</v>
       </c>
       <c r="C72" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>115</v>
       </c>
       <c r="E72" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F72">
         <v>20</v>
       </c>
       <c r="G72" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
     </row>
@@ -6563,22 +6984,22 @@
         <v>68</v>
       </c>
       <c r="C73" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>115</v>
       </c>
       <c r="E73" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F73">
         <v>20</v>
       </c>
       <c r="G73" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
     </row>
@@ -6590,22 +7011,22 @@
         <v>102</v>
       </c>
       <c r="C74" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>115</v>
       </c>
       <c r="E74" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F74">
         <v>20</v>
       </c>
       <c r="G74" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
     </row>
@@ -6617,22 +7038,22 @@
         <v>103</v>
       </c>
       <c r="C75" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>115</v>
       </c>
       <c r="E75" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F75">
         <v>20</v>
       </c>
       <c r="G75" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
     </row>
@@ -6644,22 +7065,22 @@
         <v>100</v>
       </c>
       <c r="C76" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>115</v>
       </c>
       <c r="E76" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F76">
         <v>20</v>
       </c>
       <c r="G76" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
     </row>
@@ -6671,22 +7092,22 @@
         <v>95</v>
       </c>
       <c r="C77" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D77">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="E77" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
       <c r="G77" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -6698,11 +7119,11 @@
         <v>95</v>
       </c>
       <c r="C78" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D78">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="E78" s="19">
@@ -6713,7 +7134,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -6725,22 +7146,22 @@
         <v>68</v>
       </c>
       <c r="C79" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="E79" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F79">
         <v>20</v>
       </c>
       <c r="G79" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -6752,22 +7173,22 @@
         <v>96</v>
       </c>
       <c r="C80" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="E80" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F80">
         <v>20</v>
       </c>
       <c r="G80" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -6779,22 +7200,22 @@
         <v>97</v>
       </c>
       <c r="C81" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D81">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="E81" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F81">
         <v>20</v>
       </c>
       <c r="G81" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -6806,22 +7227,22 @@
         <v>98</v>
       </c>
       <c r="C82" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D82">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="E82" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F82">
         <v>20</v>
       </c>
       <c r="G82" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -6833,22 +7254,22 @@
         <v>100</v>
       </c>
       <c r="C83" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D83">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="E83" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F83">
         <v>20</v>
       </c>
       <c r="G83" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -6860,22 +7281,22 @@
         <v>95</v>
       </c>
       <c r="C84" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="D84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="E84" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="F84">
         <v>20</v>
       </c>
       <c r="G84" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>40</v>
       </c>
     </row>
@@ -6887,22 +7308,22 @@
         <v>68</v>
       </c>
       <c r="C85" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="D85">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="E85" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="F85">
         <v>20</v>
       </c>
       <c r="G85" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>40</v>
       </c>
     </row>
@@ -6914,22 +7335,22 @@
         <v>102</v>
       </c>
       <c r="C86" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="D86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="E86" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="F86">
         <v>20</v>
       </c>
       <c r="G86" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>40</v>
       </c>
     </row>
@@ -6941,22 +7362,22 @@
         <v>100</v>
       </c>
       <c r="C87" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="D87">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="E87" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="F87">
         <v>20</v>
       </c>
       <c r="G87" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>40</v>
       </c>
     </row>
@@ -6971,140 +7392,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24C9007-554B-4576-8FF0-AA6FDF5C687F}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>520</v>
-      </c>
-      <c r="B1" s="30">
-        <f>A1/$A$13</f>
-        <v>0.1766304347826087</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>422</v>
-      </c>
-      <c r="B2" s="30">
-        <f t="shared" ref="B2:B13" si="0">A2/$A$13</f>
-        <v>0.14334239130434784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>305</v>
-      </c>
-      <c r="B3" s="30">
-        <f t="shared" si="0"/>
-        <v>0.10360054347826086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>282</v>
-      </c>
-      <c r="B4" s="30">
-        <f t="shared" si="0"/>
-        <v>9.5788043478260865E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>270</v>
-      </c>
-      <c r="B5" s="30">
-        <f t="shared" si="0"/>
-        <v>9.1711956521739135E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>175</v>
-      </c>
-      <c r="B6" s="30">
-        <f t="shared" si="0"/>
-        <v>5.9442934782608696E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>280</v>
-      </c>
-      <c r="B7" s="30">
-        <f t="shared" si="0"/>
-        <v>9.5108695652173919E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>73</v>
-      </c>
-      <c r="B8" s="30">
-        <f t="shared" si="0"/>
-        <v>2.4796195652173912E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>326</v>
-      </c>
-      <c r="B9" s="30">
-        <f t="shared" si="0"/>
-        <v>0.11073369565217392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>97</v>
-      </c>
-      <c r="B10" s="30">
-        <f t="shared" si="0"/>
-        <v>3.2948369565217392E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>97</v>
-      </c>
-      <c r="B11" s="30">
-        <f t="shared" si="0"/>
-        <v>3.2948369565217392E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>97</v>
-      </c>
-      <c r="B12" s="30">
-        <f t="shared" si="0"/>
-        <v>3.2948369565217392E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>SUM(A1:A12)</f>
-        <v>2944</v>
-      </c>
-      <c r="B13" s="30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -7239,12 +7526,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7291,610 +7578,610 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="66">
-        <v>0</v>
-      </c>
-      <c r="D2" s="66">
-        <v>0</v>
-      </c>
-      <c r="E2" s="66">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="F2" s="66">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G2" s="66">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="H2" s="66">
-        <v>170</v>
-      </c>
-      <c r="I2" s="66">
-        <v>0</v>
-      </c>
-      <c r="J2" s="66">
+      <c r="C2" s="84">
+        <v>0</v>
+      </c>
+      <c r="D2" s="84">
+        <v>0</v>
+      </c>
+      <c r="E2" s="84">
+        <v>7.407</v>
+      </c>
+      <c r="F2" s="84">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="G2" s="84">
+        <v>3.2069999999999999</v>
+      </c>
+      <c r="H2" s="84">
+        <v>2050</v>
+      </c>
+      <c r="I2" s="84">
+        <v>3</v>
+      </c>
+      <c r="J2" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="66">
-        <v>0</v>
-      </c>
-      <c r="D3" s="66">
-        <v>0</v>
-      </c>
-      <c r="E3" s="66">
+      <c r="C3" s="84">
+        <v>0</v>
+      </c>
+      <c r="D3" s="84">
+        <v>0</v>
+      </c>
+      <c r="E3" s="84">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F3" s="84">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="84">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F3" s="66">
-        <v>1E-3</v>
-      </c>
-      <c r="G3" s="66">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H3" s="66">
-        <v>92</v>
-      </c>
-      <c r="I3" s="66">
-        <v>0</v>
-      </c>
-      <c r="J3" s="66">
+      <c r="H3" s="84">
+        <v>1095</v>
+      </c>
+      <c r="I3" s="84">
+        <v>0</v>
+      </c>
+      <c r="J3" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="66">
-        <v>0</v>
-      </c>
-      <c r="D4" s="66">
-        <v>0</v>
-      </c>
-      <c r="E4" s="66">
-        <v>0.125</v>
-      </c>
-      <c r="F4" s="66">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G4" s="66">
-        <v>0.124</v>
-      </c>
-      <c r="H4" s="66">
-        <v>32</v>
-      </c>
-      <c r="I4" s="66">
-        <v>0</v>
-      </c>
-      <c r="J4" s="66">
+      <c r="C4" s="84">
+        <v>0</v>
+      </c>
+      <c r="D4" s="84">
+        <v>0</v>
+      </c>
+      <c r="E4" s="84">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="F4" s="84">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="G4" s="84">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="H4" s="84">
+        <v>389</v>
+      </c>
+      <c r="I4" s="84">
+        <v>0</v>
+      </c>
+      <c r="J4" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="66">
-        <v>0</v>
-      </c>
-      <c r="D5" s="66">
-        <v>0</v>
-      </c>
-      <c r="E5" s="66">
-        <v>0.128</v>
-      </c>
-      <c r="F5" s="66">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="66">
-        <v>0.124</v>
-      </c>
-      <c r="H5" s="66">
-        <v>105</v>
-      </c>
-      <c r="I5" s="66">
-        <v>0</v>
-      </c>
-      <c r="J5" s="66">
+      <c r="C5" s="84">
+        <v>0</v>
+      </c>
+      <c r="D5" s="84">
+        <v>0</v>
+      </c>
+      <c r="E5" s="84">
+        <v>4.944</v>
+      </c>
+      <c r="F5" s="84">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="G5" s="84">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="H5" s="84">
+        <v>1256</v>
+      </c>
+      <c r="I5" s="84">
+        <v>0</v>
+      </c>
+      <c r="J5" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="66">
-        <v>0</v>
-      </c>
-      <c r="D6" s="66">
-        <v>0</v>
-      </c>
-      <c r="E6" s="66">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F6" s="66">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G6" s="66">
-        <v>0.124</v>
-      </c>
-      <c r="H6" s="66">
-        <v>95</v>
-      </c>
-      <c r="I6" s="66">
-        <v>0</v>
-      </c>
-      <c r="J6" s="66">
+      <c r="C6" s="84">
+        <v>0</v>
+      </c>
+      <c r="D6" s="84">
+        <v>0</v>
+      </c>
+      <c r="E6" s="84">
+        <v>4.9080000000000004</v>
+      </c>
+      <c r="F6" s="84">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G6" s="84">
+        <v>1.165</v>
+      </c>
+      <c r="H6" s="84">
+        <v>1150</v>
+      </c>
+      <c r="I6" s="84">
+        <v>0</v>
+      </c>
+      <c r="J6" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="66">
-        <v>0</v>
-      </c>
-      <c r="D7" s="66">
-        <v>0</v>
-      </c>
-      <c r="E7" s="66">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F7" s="66">
-        <v>1E-3</v>
-      </c>
-      <c r="G7" s="66">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H7" s="66">
-        <v>33</v>
-      </c>
-      <c r="I7" s="66">
-        <v>0</v>
-      </c>
-      <c r="J7" s="66">
+      <c r="C7" s="84">
+        <v>0</v>
+      </c>
+      <c r="D7" s="84">
+        <v>0</v>
+      </c>
+      <c r="E7" s="84">
+        <v>3.718</v>
+      </c>
+      <c r="F7" s="84">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G7" s="84">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="H7" s="84">
+        <v>388</v>
+      </c>
+      <c r="I7" s="84">
+        <v>0</v>
+      </c>
+      <c r="J7" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="66">
-        <v>0</v>
-      </c>
-      <c r="D8" s="66">
-        <v>0</v>
-      </c>
-      <c r="E8" s="66">
-        <v>0.112</v>
-      </c>
-      <c r="F8" s="66">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G8" s="66">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="H8" s="66">
-        <v>24</v>
-      </c>
-      <c r="I8" s="66">
-        <v>0</v>
-      </c>
-      <c r="J8" s="66">
+      <c r="C8" s="84">
+        <v>0</v>
+      </c>
+      <c r="D8" s="84">
+        <v>0</v>
+      </c>
+      <c r="E8" s="84">
+        <v>1.649</v>
+      </c>
+      <c r="F8" s="84">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G8" s="84">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H8" s="84">
+        <v>285</v>
+      </c>
+      <c r="I8" s="84">
+        <v>3</v>
+      </c>
+      <c r="J8" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="66">
-        <v>0</v>
-      </c>
-      <c r="D9" s="66">
-        <v>0</v>
-      </c>
-      <c r="E9" s="66">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F9" s="66">
-        <v>1E-3</v>
-      </c>
-      <c r="G9" s="66">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H9" s="66">
-        <v>32</v>
-      </c>
-      <c r="I9" s="66">
-        <v>0</v>
-      </c>
-      <c r="J9" s="66">
+      <c r="C9" s="84">
+        <v>0</v>
+      </c>
+      <c r="D9" s="84">
+        <v>0</v>
+      </c>
+      <c r="E9" s="84">
+        <v>2</v>
+      </c>
+      <c r="F9" s="84">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G9" s="84">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H9" s="84">
+        <v>388</v>
+      </c>
+      <c r="I9" s="84">
+        <v>0</v>
+      </c>
+      <c r="J9" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="66">
-        <v>0</v>
-      </c>
-      <c r="D10" s="66">
-        <v>0</v>
-      </c>
-      <c r="E10" s="66">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F10" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G10" s="66">
-        <v>0.124</v>
-      </c>
-      <c r="H10" s="66">
-        <v>138</v>
-      </c>
-      <c r="I10" s="66">
-        <v>0</v>
-      </c>
-      <c r="J10" s="66">
+      <c r="C10" s="84">
+        <v>0</v>
+      </c>
+      <c r="D10" s="84">
+        <v>0</v>
+      </c>
+      <c r="E10" s="84">
+        <v>4.33</v>
+      </c>
+      <c r="F10" s="84">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="G10" s="84">
+        <v>1.236</v>
+      </c>
+      <c r="H10" s="84">
+        <v>1664</v>
+      </c>
+      <c r="I10" s="84">
+        <v>0</v>
+      </c>
+      <c r="J10" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="66">
-        <v>0</v>
-      </c>
-      <c r="D11" s="66">
-        <v>0</v>
-      </c>
-      <c r="E11" s="66">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F11" s="66">
-        <v>2E-3</v>
-      </c>
-      <c r="G11" s="66">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H11" s="66">
+      <c r="C11" s="84">
+        <v>0</v>
+      </c>
+      <c r="D11" s="84">
+        <v>0</v>
+      </c>
+      <c r="E11" s="84">
+        <v>3.044</v>
+      </c>
+      <c r="F11" s="84">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="G11" s="84">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H11" s="84">
+        <v>1347</v>
+      </c>
+      <c r="I11" s="84">
+        <v>0</v>
+      </c>
+      <c r="J11" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="84">
+        <v>0</v>
+      </c>
+      <c r="D12" s="84">
+        <v>0</v>
+      </c>
+      <c r="E12" s="84">
+        <v>3.5259999999999998</v>
+      </c>
+      <c r="F12" s="84">
+        <v>0.433</v>
+      </c>
+      <c r="G12" s="84">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="H12" s="84">
+        <v>2054</v>
+      </c>
+      <c r="I12" s="84">
+        <v>0</v>
+      </c>
+      <c r="J12" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="84">
+        <v>0</v>
+      </c>
+      <c r="D13" s="84">
+        <v>0</v>
+      </c>
+      <c r="E13" s="84">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="F13" s="84">
+        <v>0.36</v>
+      </c>
+      <c r="G13" s="84">
+        <v>0.318</v>
+      </c>
+      <c r="H13" s="84">
+        <v>703</v>
+      </c>
+      <c r="I13" s="84">
+        <v>0</v>
+      </c>
+      <c r="J13" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="66">
-        <v>0</v>
-      </c>
-      <c r="J11" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="66" t="s">
+      <c r="B14" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="66">
-        <v>0</v>
-      </c>
-      <c r="D12" s="66">
-        <v>0</v>
-      </c>
-      <c r="E12" s="66">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F12" s="66">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G12" s="66">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="H12" s="66">
-        <v>171</v>
-      </c>
-      <c r="I12" s="66">
-        <v>0</v>
-      </c>
-      <c r="J12" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="66" t="s">
+      <c r="C14" s="84">
+        <v>0</v>
+      </c>
+      <c r="D14" s="84">
+        <v>0</v>
+      </c>
+      <c r="E14" s="84">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="F14" s="84">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G14" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="84">
+        <v>1096</v>
+      </c>
+      <c r="I14" s="84">
+        <v>0</v>
+      </c>
+      <c r="J14" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="66">
-        <v>0</v>
-      </c>
-      <c r="D13" s="66">
-        <v>0</v>
-      </c>
-      <c r="E13" s="66">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F13" s="66">
-        <v>2E-3</v>
-      </c>
-      <c r="G13" s="66">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H13" s="66">
-        <v>58</v>
-      </c>
-      <c r="I13" s="66">
-        <v>0</v>
-      </c>
-      <c r="J13" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="66" t="s">
+      <c r="C15" s="84">
+        <v>0</v>
+      </c>
+      <c r="D15" s="84">
+        <v>0</v>
+      </c>
+      <c r="E15" s="84">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="F15" s="84">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="G15" s="84">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="H15" s="84">
+        <v>120</v>
+      </c>
+      <c r="I15" s="84">
+        <v>0</v>
+      </c>
+      <c r="J15" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="66">
-        <v>0</v>
-      </c>
-      <c r="D14" s="66">
-        <v>0</v>
-      </c>
-      <c r="E14" s="66">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F14" s="66">
-        <v>2E-3</v>
-      </c>
-      <c r="G14" s="66">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H14" s="66">
-        <v>92</v>
-      </c>
-      <c r="I14" s="66">
-        <v>0</v>
-      </c>
-      <c r="J14" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="66" t="s">
+      <c r="C16" s="84">
+        <v>0</v>
+      </c>
+      <c r="D16" s="84">
+        <v>0</v>
+      </c>
+      <c r="E16" s="84">
+        <v>6.5839999999999996</v>
+      </c>
+      <c r="F16" s="84">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="G16" s="84">
+        <v>3.0459999999999998</v>
+      </c>
+      <c r="H16" s="84">
+        <v>392</v>
+      </c>
+      <c r="I16" s="84">
+        <v>0</v>
+      </c>
+      <c r="J16" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="66">
-        <v>0</v>
-      </c>
-      <c r="D15" s="66">
-        <v>0</v>
-      </c>
-      <c r="E15" s="66">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="F15" s="66">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G15" s="66">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="H15" s="66">
-        <v>10</v>
-      </c>
-      <c r="I15" s="66">
-        <v>0</v>
-      </c>
-      <c r="J15" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="66" t="s">
+      <c r="C17" s="84">
+        <v>0</v>
+      </c>
+      <c r="D17" s="84">
+        <v>0</v>
+      </c>
+      <c r="E17" s="84">
+        <v>7.407</v>
+      </c>
+      <c r="F17" s="84">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="G17" s="84">
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="H17" s="84">
+        <v>703</v>
+      </c>
+      <c r="I17" s="84">
+        <v>0</v>
+      </c>
+      <c r="J17" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="66">
-        <v>0</v>
-      </c>
-      <c r="D16" s="66">
-        <v>0</v>
-      </c>
-      <c r="E16" s="66">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="F16" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G16" s="66">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="H16" s="66">
-        <v>33</v>
-      </c>
-      <c r="I16" s="66">
-        <v>0</v>
-      </c>
-      <c r="J16" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="66" t="s">
+      <c r="C18" s="84">
+        <v>0</v>
+      </c>
+      <c r="D18" s="84">
+        <v>0</v>
+      </c>
+      <c r="E18" s="84">
+        <v>6.11</v>
+      </c>
+      <c r="F18" s="84">
+        <v>1.387</v>
+      </c>
+      <c r="G18" s="84">
+        <v>3.8490000000000002</v>
+      </c>
+      <c r="H18" s="84">
+        <v>159</v>
+      </c>
+      <c r="I18" s="84">
+        <v>0</v>
+      </c>
+      <c r="J18" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="66">
-        <v>0</v>
-      </c>
-      <c r="D17" s="66">
-        <v>0</v>
-      </c>
-      <c r="E17" s="66">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="F17" s="66">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G17" s="66">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="H17" s="66">
-        <v>58</v>
-      </c>
-      <c r="I17" s="66">
-        <v>0</v>
-      </c>
-      <c r="J17" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="66" t="s">
+      <c r="C19" s="84">
+        <v>0</v>
+      </c>
+      <c r="D19" s="84">
+        <v>0</v>
+      </c>
+      <c r="E19" s="84">
+        <v>7.2549999999999999</v>
+      </c>
+      <c r="F19" s="84">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="84">
+        <v>4.2229999999999999</v>
+      </c>
+      <c r="H19" s="84">
+        <v>285</v>
+      </c>
+      <c r="I19" s="84">
+        <v>3</v>
+      </c>
+      <c r="J19" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="66">
-        <v>0</v>
-      </c>
-      <c r="D18" s="66">
-        <v>0</v>
-      </c>
-      <c r="E18" s="66">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="F18" s="66">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G18" s="66">
-        <v>0.52</v>
-      </c>
-      <c r="H18" s="66">
-        <v>13</v>
-      </c>
-      <c r="I18" s="66">
-        <v>0</v>
-      </c>
-      <c r="J18" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="66">
-        <v>0</v>
-      </c>
-      <c r="D19" s="66">
-        <v>0</v>
-      </c>
-      <c r="E19" s="66">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="F19" s="66">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G19" s="66">
-        <v>0.503</v>
-      </c>
-      <c r="H19" s="66">
-        <v>24</v>
-      </c>
-      <c r="I19" s="66">
-        <v>0</v>
-      </c>
-      <c r="J19" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="66">
-        <v>0</v>
-      </c>
-      <c r="D20" s="66">
-        <v>0</v>
-      </c>
-      <c r="E20" s="66">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="F20" s="66">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G20" s="66">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="H20" s="66">
-        <v>32</v>
-      </c>
-      <c r="I20" s="66">
-        <v>0</v>
-      </c>
-      <c r="J20" s="66">
+      <c r="C20" s="84">
+        <v>0</v>
+      </c>
+      <c r="D20" s="84">
+        <v>0</v>
+      </c>
+      <c r="E20" s="84">
+        <v>5.1509999999999998</v>
+      </c>
+      <c r="F20" s="84">
+        <v>1.101</v>
+      </c>
+      <c r="G20" s="84">
+        <v>2.952</v>
+      </c>
+      <c r="H20" s="84">
+        <v>391</v>
+      </c>
+      <c r="I20" s="84">
+        <v>0</v>
+      </c>
+      <c r="J20" s="84">
         <v>0</v>
       </c>
     </row>
@@ -7927,12 +8214,700 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47959B1A-2B5D-4EFC-A2DE-C17CCAD50E23}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="84">
+        <v>0</v>
+      </c>
+      <c r="D2" s="84">
+        <v>0</v>
+      </c>
+      <c r="E2" s="84">
+        <v>7.407</v>
+      </c>
+      <c r="F2" s="84">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="G2" s="84">
+        <v>3.2069999999999999</v>
+      </c>
+      <c r="H2" s="84">
+        <v>2050</v>
+      </c>
+      <c r="I2" s="84">
+        <v>3</v>
+      </c>
+      <c r="J2" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="84">
+        <v>0</v>
+      </c>
+      <c r="D3" s="84">
+        <v>0</v>
+      </c>
+      <c r="E3" s="84">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F3" s="84">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="84">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H3" s="84">
+        <v>1095</v>
+      </c>
+      <c r="I3" s="84">
+        <v>0</v>
+      </c>
+      <c r="J3" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="84">
+        <v>0</v>
+      </c>
+      <c r="D4" s="84">
+        <v>0</v>
+      </c>
+      <c r="E4" s="84">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="F4" s="84">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="G4" s="84">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="H4" s="84">
+        <v>389</v>
+      </c>
+      <c r="I4" s="84">
+        <v>0</v>
+      </c>
+      <c r="J4" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="84">
+        <v>0</v>
+      </c>
+      <c r="D5" s="84">
+        <v>0</v>
+      </c>
+      <c r="E5" s="84">
+        <v>4.944</v>
+      </c>
+      <c r="F5" s="84">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="G5" s="84">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="H5" s="84">
+        <v>1256</v>
+      </c>
+      <c r="I5" s="84">
+        <v>0</v>
+      </c>
+      <c r="J5" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="84">
+        <v>0</v>
+      </c>
+      <c r="D6" s="84">
+        <v>0</v>
+      </c>
+      <c r="E6" s="84">
+        <v>4.9080000000000004</v>
+      </c>
+      <c r="F6" s="84">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G6" s="84">
+        <v>1.165</v>
+      </c>
+      <c r="H6" s="84">
+        <v>1150</v>
+      </c>
+      <c r="I6" s="84">
+        <v>0</v>
+      </c>
+      <c r="J6" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="84">
+        <v>0</v>
+      </c>
+      <c r="D7" s="84">
+        <v>0</v>
+      </c>
+      <c r="E7" s="84">
+        <v>3.718</v>
+      </c>
+      <c r="F7" s="84">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G7" s="84">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="H7" s="84">
+        <v>388</v>
+      </c>
+      <c r="I7" s="84">
+        <v>0</v>
+      </c>
+      <c r="J7" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="84">
+        <v>0</v>
+      </c>
+      <c r="D8" s="84">
+        <v>0</v>
+      </c>
+      <c r="E8" s="84">
+        <v>1.649</v>
+      </c>
+      <c r="F8" s="84">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G8" s="84">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H8" s="84">
+        <v>285</v>
+      </c>
+      <c r="I8" s="84">
+        <v>3</v>
+      </c>
+      <c r="J8" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="84">
+        <v>0</v>
+      </c>
+      <c r="D9" s="84">
+        <v>0</v>
+      </c>
+      <c r="E9" s="84">
+        <v>2</v>
+      </c>
+      <c r="F9" s="84">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G9" s="84">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H9" s="84">
+        <v>388</v>
+      </c>
+      <c r="I9" s="84">
+        <v>0</v>
+      </c>
+      <c r="J9" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="84">
+        <v>0</v>
+      </c>
+      <c r="D10" s="84">
+        <v>0</v>
+      </c>
+      <c r="E10" s="84">
+        <v>4.33</v>
+      </c>
+      <c r="F10" s="84">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="G10" s="84">
+        <v>1.236</v>
+      </c>
+      <c r="H10" s="84">
+        <v>1664</v>
+      </c>
+      <c r="I10" s="84">
+        <v>0</v>
+      </c>
+      <c r="J10" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="84">
+        <v>0</v>
+      </c>
+      <c r="D11" s="84">
+        <v>0</v>
+      </c>
+      <c r="E11" s="84">
+        <v>3.044</v>
+      </c>
+      <c r="F11" s="84">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="G11" s="84">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H11" s="84">
+        <v>1347</v>
+      </c>
+      <c r="I11" s="84">
+        <v>0</v>
+      </c>
+      <c r="J11" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="84">
+        <v>0</v>
+      </c>
+      <c r="D12" s="84">
+        <v>0</v>
+      </c>
+      <c r="E12" s="84">
+        <v>3.5259999999999998</v>
+      </c>
+      <c r="F12" s="84">
+        <v>0.433</v>
+      </c>
+      <c r="G12" s="84">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="H12" s="84">
+        <v>2054</v>
+      </c>
+      <c r="I12" s="84">
+        <v>0</v>
+      </c>
+      <c r="J12" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="84">
+        <v>0</v>
+      </c>
+      <c r="D13" s="84">
+        <v>0</v>
+      </c>
+      <c r="E13" s="84">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="F13" s="84">
+        <v>0.36</v>
+      </c>
+      <c r="G13" s="84">
+        <v>0.318</v>
+      </c>
+      <c r="H13" s="84">
+        <v>703</v>
+      </c>
+      <c r="I13" s="84">
+        <v>0</v>
+      </c>
+      <c r="J13" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="84">
+        <v>0</v>
+      </c>
+      <c r="D14" s="84">
+        <v>0</v>
+      </c>
+      <c r="E14" s="84">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="F14" s="84">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G14" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="84">
+        <v>1096</v>
+      </c>
+      <c r="I14" s="84">
+        <v>0</v>
+      </c>
+      <c r="J14" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="84">
+        <v>0</v>
+      </c>
+      <c r="D15" s="84">
+        <v>0</v>
+      </c>
+      <c r="E15" s="84">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="F15" s="84">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="G15" s="84">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="H15" s="84">
+        <v>120</v>
+      </c>
+      <c r="I15" s="84">
+        <v>0</v>
+      </c>
+      <c r="J15" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="84">
+        <v>0</v>
+      </c>
+      <c r="D16" s="84">
+        <v>0</v>
+      </c>
+      <c r="E16" s="84">
+        <v>6.5839999999999996</v>
+      </c>
+      <c r="F16" s="84">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="G16" s="84">
+        <v>3.0459999999999998</v>
+      </c>
+      <c r="H16" s="84">
+        <v>392</v>
+      </c>
+      <c r="I16" s="84">
+        <v>0</v>
+      </c>
+      <c r="J16" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="84">
+        <v>0</v>
+      </c>
+      <c r="D17" s="84">
+        <v>0</v>
+      </c>
+      <c r="E17" s="84">
+        <v>7.407</v>
+      </c>
+      <c r="F17" s="84">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="G17" s="84">
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="H17" s="84">
+        <v>703</v>
+      </c>
+      <c r="I17" s="84">
+        <v>0</v>
+      </c>
+      <c r="J17" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="84">
+        <v>0</v>
+      </c>
+      <c r="D18" s="84">
+        <v>0</v>
+      </c>
+      <c r="E18" s="84">
+        <v>6.11</v>
+      </c>
+      <c r="F18" s="84">
+        <v>1.387</v>
+      </c>
+      <c r="G18" s="84">
+        <v>3.8490000000000002</v>
+      </c>
+      <c r="H18" s="84">
+        <v>159</v>
+      </c>
+      <c r="I18" s="84">
+        <v>0</v>
+      </c>
+      <c r="J18" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="84">
+        <v>0</v>
+      </c>
+      <c r="D19" s="84">
+        <v>0</v>
+      </c>
+      <c r="E19" s="84">
+        <v>7.2549999999999999</v>
+      </c>
+      <c r="F19" s="84">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="84">
+        <v>4.2229999999999999</v>
+      </c>
+      <c r="H19" s="84">
+        <v>285</v>
+      </c>
+      <c r="I19" s="84">
+        <v>3</v>
+      </c>
+      <c r="J19" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="84">
+        <v>0</v>
+      </c>
+      <c r="D20" s="84">
+        <v>0</v>
+      </c>
+      <c r="E20" s="84">
+        <v>5.1509999999999998</v>
+      </c>
+      <c r="F20" s="84">
+        <v>1.101</v>
+      </c>
+      <c r="G20" s="84">
+        <v>2.952</v>
+      </c>
+      <c r="H20" s="84">
+        <v>391</v>
+      </c>
+      <c r="I20" s="84">
+        <v>0</v>
+      </c>
+      <c r="J20" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C9:O44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7940,7 +8915,7 @@
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
@@ -7954,13 +8929,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -8113,13 +9088,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -8279,13 +9254,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="77" t="s">
+      <c r="E35" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
@@ -8542,4 +9517,196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F35DD45-03A1-4358-9E10-F9871C34E97E}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3762</v>
+      </c>
+      <c r="E2" s="74">
+        <v>3.1349999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>13800</v>
+      </c>
+      <c r="C3" s="74">
+        <v>11.5</v>
+      </c>
+      <c r="D3">
+        <f>B3/4</f>
+        <v>3450</v>
+      </c>
+      <c r="E3">
+        <f>C3/4</f>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>13800</v>
+      </c>
+      <c r="C5" s="74">
+        <v>11.5</v>
+      </c>
+      <c r="D5">
+        <f>B5/4</f>
+        <v>3450</v>
+      </c>
+      <c r="E5">
+        <f>C5/4</f>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="76">
+        <v>686</v>
+      </c>
+      <c r="B9">
+        <f>A9*3</f>
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5314</v>
+      </c>
+      <c r="B10">
+        <f>A10*3</f>
+        <v>15942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="77">
+        <v>5314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24C9007-554B-4576-8FF0-AA6FDF5C687F}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>SummaryReport!A15</f>
+        <v>UC1_login</v>
+      </c>
+      <c r="B1">
+        <f>SummaryReport!H15</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>SummaryReport!A16</f>
+        <v>UC2_Search_Ticket</v>
+      </c>
+      <c r="B2">
+        <f>SummaryReport!H16</f>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>SummaryReport!A17</f>
+        <v>UC3_Buy_Ticket</v>
+      </c>
+      <c r="B3">
+        <f>SummaryReport!H17</f>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>SummaryReport!A18</f>
+        <v>UC4_View_Itinerary</v>
+      </c>
+      <c r="B4">
+        <f>SummaryReport!H18</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>SummaryReport!A19</f>
+        <v>UC5_Delete_Ticket</v>
+      </c>
+      <c r="B5">
+        <f>SummaryReport!H19</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>SummaryReport!A20</f>
+        <v>UC6_register</v>
+      </c>
+      <c r="B6">
+        <f>SummaryReport!H20</f>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>SUM(B1:B6)*3</f>
+        <v>6150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)2.xlsx
+++ b/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svp31\Desktop\kurs nt\git\xset\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5696516D-77AC-4740-9E94-2DBCE69504E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD4B732-696F-444E-ACEF-3B384D672056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="6" r:id="rId1"/>
@@ -626,28 +626,51 @@
     <t>Per second </t>
   </si>
   <si>
-    <t>Тест проверки максимума</t>
-  </si>
-  <si>
     <t>Расчетная интенсивность запросов / 1 час</t>
+  </si>
+  <si>
+    <t>Тест проверки максимума на 4 ступени VU=40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1595,73 +1618,133 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="243">
+  <cellStyleXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1699,9 +1782,26 @@
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1759,26 +1859,9 @@
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1840,46 +1923,46 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1888,16 +1971,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1907,28 +1990,28 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
@@ -1937,14 +2020,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1956,11 +2039,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="126"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="126"/>
     <xf numFmtId="165" fontId="0" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1971,11 +2054,10 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="38" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1987,11 +2069,24 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="223"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="283"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="283"/>
   </cellXfs>
-  <cellStyles count="243">
+  <cellStyles count="303">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 10" xfId="225" xr:uid="{C4096CC6-5415-4630-8806-11C8898A33A6}"/>
+    <cellStyle name="20% — акцент1 11" xfId="245" xr:uid="{9F794419-34C7-4348-AE5E-41E2E321B931}"/>
+    <cellStyle name="20% — акцент1 12" xfId="265" xr:uid="{EE1C0A30-82B8-48B2-8C90-ADEF50462F58}"/>
+    <cellStyle name="20% — акцент1 13" xfId="285" xr:uid="{49341807-5D80-4225-9991-B8CD38273E52}"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 2 2" xfId="171" xr:uid="{144E7AF9-F5C5-42BD-8073-928AF7841A08}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{95C30DF6-799A-46AE-9322-FF3DE2C815DF}"/>
@@ -2003,6 +2098,9 @@
     <cellStyle name="20% — акцент1 9" xfId="205" xr:uid="{9AC5E1C6-EF6E-4906-BC57-01C69E273969}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 10" xfId="228" xr:uid="{B9FAB50D-52B8-4834-92A3-6C7B7053664A}"/>
+    <cellStyle name="20% — акцент2 11" xfId="248" xr:uid="{5C3FEE0F-FF23-44F5-A1A1-BF4E6D76F2B4}"/>
+    <cellStyle name="20% — акцент2 12" xfId="268" xr:uid="{9DB1017D-B645-4BA5-907D-D9E9C2C6C937}"/>
+    <cellStyle name="20% — акцент2 13" xfId="288" xr:uid="{64F11FCB-E440-44D5-85B0-B53CA72CA42D}"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% — акцент2 2 2" xfId="173" xr:uid="{27A56DB3-C818-4B86-B7FA-1AFDE1ADD182}"/>
     <cellStyle name="20% — акцент2 3" xfId="71" xr:uid="{2DA0A3D4-34D3-4823-BA40-EF3FD049445E}"/>
@@ -2014,6 +2112,9 @@
     <cellStyle name="20% — акцент2 9" xfId="208" xr:uid="{16E99BE4-C9BC-426B-B027-215BF63AD000}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 10" xfId="231" xr:uid="{09821C50-BCD6-4249-A706-5526EB28DAD2}"/>
+    <cellStyle name="20% — акцент3 11" xfId="251" xr:uid="{B4216530-800D-4E69-8B0D-13EF684A28DD}"/>
+    <cellStyle name="20% — акцент3 12" xfId="271" xr:uid="{6E05C49E-7604-40F3-92F3-087B1515A068}"/>
+    <cellStyle name="20% — акцент3 13" xfId="291" xr:uid="{D21505A5-23BA-4441-942E-16C1F14CDA3A}"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент3 2 2" xfId="175" xr:uid="{EC248B9C-2F19-4EE3-A7FD-2AA4976F644D}"/>
     <cellStyle name="20% — акцент3 3" xfId="74" xr:uid="{C90B4149-7A40-49B2-BBA8-3B4EFA22448D}"/>
@@ -2025,6 +2126,9 @@
     <cellStyle name="20% — акцент3 9" xfId="211" xr:uid="{9E20F04E-7F44-4DAE-91BB-874A1C594280}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 10" xfId="234" xr:uid="{19B7F22E-8AC8-43FC-A6FB-E7145E97FA9E}"/>
+    <cellStyle name="20% — акцент4 11" xfId="254" xr:uid="{0BE427F1-C83C-40C7-91FB-C895D6A0A49E}"/>
+    <cellStyle name="20% — акцент4 12" xfId="274" xr:uid="{C72B3447-1834-49C1-B7E4-938FF3AB83B1}"/>
+    <cellStyle name="20% — акцент4 13" xfId="294" xr:uid="{8018E903-F34A-4736-9D55-030C28AC8CCF}"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент4 2 2" xfId="177" xr:uid="{23FC683B-A1A6-4667-85DE-B6B84038AD70}"/>
     <cellStyle name="20% — акцент4 3" xfId="77" xr:uid="{A3238FAF-0EE9-4031-8CC0-86D444EE2BA8}"/>
@@ -2036,6 +2140,9 @@
     <cellStyle name="20% — акцент4 9" xfId="214" xr:uid="{330887CB-56EA-4288-9E02-1C46A05BC2EE}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 10" xfId="237" xr:uid="{3F442A06-222C-44EF-97D2-7267AAB79041}"/>
+    <cellStyle name="20% — акцент5 11" xfId="257" xr:uid="{15775BCF-B68B-4355-B55D-B377F1C2A154}"/>
+    <cellStyle name="20% — акцент5 12" xfId="277" xr:uid="{2C7D6B8D-4B5A-43CC-B98E-9EDE2C229D17}"/>
+    <cellStyle name="20% — акцент5 13" xfId="297" xr:uid="{C50BE9FD-7352-4702-889A-E4DB7CBD8EF7}"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% — акцент5 2 2" xfId="179" xr:uid="{28D40AF6-20AB-4863-9487-2649CB422A48}"/>
     <cellStyle name="20% — акцент5 3" xfId="80" xr:uid="{6CFDC12F-0671-454D-85DD-73A01DBF0DB5}"/>
@@ -2047,6 +2154,9 @@
     <cellStyle name="20% — акцент5 9" xfId="217" xr:uid="{4A1ECB84-9EA0-482F-A3A4-1F8B16FF2494}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 10" xfId="240" xr:uid="{8C95E38E-845D-4857-8B09-00F1FDA7643F}"/>
+    <cellStyle name="20% — акцент6 11" xfId="260" xr:uid="{82F555DF-08E1-4548-96CB-A2AAD017ABFD}"/>
+    <cellStyle name="20% — акцент6 12" xfId="280" xr:uid="{599CC799-55EE-4E52-9305-D7650E4D2720}"/>
+    <cellStyle name="20% — акцент6 13" xfId="300" xr:uid="{1BDCDCFE-CB33-4809-BD3A-C4068818CED8}"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент6 2 2" xfId="181" xr:uid="{9E10323F-3D21-4624-A67C-8F6B3CD2E0FE}"/>
     <cellStyle name="20% — акцент6 3" xfId="83" xr:uid="{DBB50A3B-B26A-47BD-B077-6459E27FFC8B}"/>
@@ -2058,6 +2168,9 @@
     <cellStyle name="20% — акцент6 9" xfId="220" xr:uid="{385B119B-A3F5-4D21-ADF8-B9D47A296A60}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 10" xfId="226" xr:uid="{D6757103-C99E-4CE7-A70D-A2329D097CCA}"/>
+    <cellStyle name="40% — акцент1 11" xfId="246" xr:uid="{A8586FE4-7776-46DD-A2BE-45CD95EE2D7F}"/>
+    <cellStyle name="40% — акцент1 12" xfId="266" xr:uid="{74AEC463-40AD-41AC-9724-842DC2F27F4E}"/>
+    <cellStyle name="40% — акцент1 13" xfId="286" xr:uid="{01135273-33DA-4E7D-A82B-53F6933738D9}"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% — акцент1 2 2" xfId="172" xr:uid="{0D333668-5F48-403D-9695-23C1531C1DCF}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{5126EFD0-07AE-40A7-8C96-AD71D96362CD}"/>
@@ -2069,6 +2182,9 @@
     <cellStyle name="40% — акцент1 9" xfId="206" xr:uid="{CC1C98D6-4B64-47A6-963E-E897F2939F24}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 10" xfId="229" xr:uid="{187C2DD6-6D60-4CA1-B1F5-56FD79C7B0CA}"/>
+    <cellStyle name="40% — акцент2 11" xfId="249" xr:uid="{8A900F6D-73A5-4823-A555-90F34C38C1E5}"/>
+    <cellStyle name="40% — акцент2 12" xfId="269" xr:uid="{95DE37B9-29C5-4CB9-9759-32C7C33A5B95}"/>
+    <cellStyle name="40% — акцент2 13" xfId="289" xr:uid="{1BC7D916-CD1D-45CA-B7C3-6FC4B68F130C}"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% — акцент2 2 2" xfId="174" xr:uid="{679082D5-E52D-4151-B8F1-CE4218395987}"/>
     <cellStyle name="40% — акцент2 3" xfId="72" xr:uid="{51DC5AC2-FAA8-4CC9-AD72-61C762633E3D}"/>
@@ -2080,6 +2196,9 @@
     <cellStyle name="40% — акцент2 9" xfId="209" xr:uid="{FC44938E-D9DE-4032-9427-D85DFE2166D9}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 10" xfId="232" xr:uid="{0698E95C-18F7-49FE-9854-77533A5A9141}"/>
+    <cellStyle name="40% — акцент3 11" xfId="252" xr:uid="{63879F3F-9C82-451D-91CD-06D31DC17D57}"/>
+    <cellStyle name="40% — акцент3 12" xfId="272" xr:uid="{6140D004-4E61-44C3-A02E-0C9A2DC8AB38}"/>
+    <cellStyle name="40% — акцент3 13" xfId="292" xr:uid="{6FB9322B-CA9F-4DA6-A2D4-98E4DB3B9D70}"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% — акцент3 2 2" xfId="176" xr:uid="{17B436A7-0F06-4777-83D1-8E0A54980666}"/>
     <cellStyle name="40% — акцент3 3" xfId="75" xr:uid="{BA6CDF79-D674-443E-8796-2650AA929FD7}"/>
@@ -2091,6 +2210,9 @@
     <cellStyle name="40% — акцент3 9" xfId="212" xr:uid="{5F897B48-00A2-4871-8534-1A3EC7097F88}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 10" xfId="235" xr:uid="{B7F540BA-5FD7-4B38-9ED7-CE75F3E422FD}"/>
+    <cellStyle name="40% — акцент4 11" xfId="255" xr:uid="{85D2CCEE-7E49-45FE-B7EE-82C157BA1814}"/>
+    <cellStyle name="40% — акцент4 12" xfId="275" xr:uid="{18068A58-226E-49DD-AD4F-294A1B5476C6}"/>
+    <cellStyle name="40% — акцент4 13" xfId="295" xr:uid="{7A39FCEA-0A42-414B-8CE4-4BF59D6B5532}"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент4 2 2" xfId="178" xr:uid="{6B3A2F7E-E14C-42E2-8973-62ADD8779D08}"/>
     <cellStyle name="40% — акцент4 3" xfId="78" xr:uid="{53C7AAD3-9C1B-4802-96BD-2DD55898E1EE}"/>
@@ -2102,6 +2224,9 @@
     <cellStyle name="40% — акцент4 9" xfId="215" xr:uid="{169072C1-995F-4558-81DF-67974808E518}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 10" xfId="238" xr:uid="{6B63132C-883B-48EF-96E7-0EEEA66A473E}"/>
+    <cellStyle name="40% — акцент5 11" xfId="258" xr:uid="{EB04CE84-6BBD-460F-9CA1-6976D4F675D0}"/>
+    <cellStyle name="40% — акцент5 12" xfId="278" xr:uid="{84DA1412-09A8-4405-9E14-BE9EE065B4E0}"/>
+    <cellStyle name="40% — акцент5 13" xfId="298" xr:uid="{B4D9739F-1B89-4BE4-8FBE-C8778DF59463}"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% — акцент5 2 2" xfId="180" xr:uid="{E40F0470-283F-4EA8-8A51-44CB8CC56AC9}"/>
     <cellStyle name="40% — акцент5 3" xfId="81" xr:uid="{DC138F03-C924-4836-8734-82313DD9F3B8}"/>
@@ -2113,6 +2238,9 @@
     <cellStyle name="40% — акцент5 9" xfId="218" xr:uid="{5B705812-4CCD-4196-A645-336451B511E2}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 10" xfId="241" xr:uid="{1EBB9B44-CAD2-4D12-80D6-19A978A12B91}"/>
+    <cellStyle name="40% — акцент6 11" xfId="261" xr:uid="{2B0C8174-0592-4B21-AD2E-C57FD6B34187}"/>
+    <cellStyle name="40% — акцент6 12" xfId="281" xr:uid="{E9AAAA8A-CBD2-4797-8DEA-B94658CF29D2}"/>
+    <cellStyle name="40% — акцент6 13" xfId="301" xr:uid="{04BE1BEB-26AA-430A-B630-74C9880A915B}"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент6 2 2" xfId="182" xr:uid="{9AB4D18E-AD22-4690-9E80-1B79389600D2}"/>
     <cellStyle name="40% — акцент6 3" xfId="84" xr:uid="{9FED3EDB-6DA0-4D02-A115-BD5D8A698173}"/>
@@ -2124,6 +2252,9 @@
     <cellStyle name="40% — акцент6 9" xfId="221" xr:uid="{0A6C3895-99C2-469D-BD23-797EABD0FDCE}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 10" xfId="227" xr:uid="{E447C01D-0D42-43B3-ADD3-FD9CB3C6F746}"/>
+    <cellStyle name="60% — акцент1 11" xfId="247" xr:uid="{E63AD5B5-E612-4D9D-8579-DDA8BF67E5AC}"/>
+    <cellStyle name="60% — акцент1 12" xfId="267" xr:uid="{46FEB04B-6350-422F-9F10-DAAB14729FE6}"/>
+    <cellStyle name="60% — акцент1 13" xfId="287" xr:uid="{10C9D42B-3ACF-44FF-89F8-EDA749E4FFA0}"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="70" xr:uid="{D72183C5-2364-45E8-9BAE-5D6DA8E801E7}"/>
     <cellStyle name="60% — акцент1 4" xfId="90" xr:uid="{35F7BF58-A28D-4E25-95BC-FD7CDC920BC0}"/>
@@ -2134,6 +2265,9 @@
     <cellStyle name="60% — акцент1 9" xfId="207" xr:uid="{5EFDB01A-D770-458B-86FD-2F42FFA31DB4}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% — акцент2 10" xfId="230" xr:uid="{FF82C02A-41D6-40F6-B5C8-10D97C6B6C7A}"/>
+    <cellStyle name="60% — акцент2 11" xfId="250" xr:uid="{1D9CF539-F34C-4DCC-8CE4-FAE648584C0A}"/>
+    <cellStyle name="60% — акцент2 12" xfId="270" xr:uid="{66FF765B-83A4-4400-8828-AB4D0751304A}"/>
+    <cellStyle name="60% — акцент2 13" xfId="290" xr:uid="{3CA768EC-287F-4509-9245-A407C5E2FEB1}"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="73" xr:uid="{EA468067-05BF-4A57-A14D-939BD5867CC5}"/>
     <cellStyle name="60% — акцент2 4" xfId="93" xr:uid="{1B1EE878-5831-4F65-9E65-295F31D423AC}"/>
@@ -2144,6 +2278,9 @@
     <cellStyle name="60% — акцент2 9" xfId="210" xr:uid="{E3DA3D21-3FD1-4C56-9DFE-5C8EEFF6F707}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% — акцент3 10" xfId="233" xr:uid="{F695D893-4383-49F4-A497-E3FA917E1FF6}"/>
+    <cellStyle name="60% — акцент3 11" xfId="253" xr:uid="{9FDFDF55-9E42-424C-8772-003DE63E55CE}"/>
+    <cellStyle name="60% — акцент3 12" xfId="273" xr:uid="{23E22AFC-9FB2-4D57-95E3-70EC5C60532E}"/>
+    <cellStyle name="60% — акцент3 13" xfId="293" xr:uid="{3F7D6498-36D4-4096-ACE6-9EEFE738D445}"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="76" xr:uid="{992E7137-D283-4FFC-990D-0488488C4E52}"/>
     <cellStyle name="60% — акцент3 4" xfId="96" xr:uid="{D9915A8A-B524-4B85-AE9E-758B9B6F1988}"/>
@@ -2154,6 +2291,9 @@
     <cellStyle name="60% — акцент3 9" xfId="213" xr:uid="{05E45FFB-84A3-4B42-9A1D-8A0D78FD67D2}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент4 10" xfId="236" xr:uid="{1E496427-4027-4A84-A311-3CBFFEF30553}"/>
+    <cellStyle name="60% — акцент4 11" xfId="256" xr:uid="{B878059F-2580-40CE-B29F-728CDB316229}"/>
+    <cellStyle name="60% — акцент4 12" xfId="276" xr:uid="{A8BB4909-5404-4820-AD3D-D8EBE42C358E}"/>
+    <cellStyle name="60% — акцент4 13" xfId="296" xr:uid="{9B0D9B3F-D8B1-4137-9240-CD7CDA28BE17}"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="79" xr:uid="{210BAF94-0139-4D70-8EDF-34FC7A1EF722}"/>
     <cellStyle name="60% — акцент4 4" xfId="99" xr:uid="{A5089FBD-1B90-43CF-9168-8413442C1962}"/>
@@ -2164,6 +2304,9 @@
     <cellStyle name="60% — акцент4 9" xfId="216" xr:uid="{8DE69F5C-AA49-4B05-8A67-8B98C9345A04}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент5 10" xfId="239" xr:uid="{3764C730-5D00-4E53-8739-B27A3BA01272}"/>
+    <cellStyle name="60% — акцент5 11" xfId="259" xr:uid="{7D5D63D5-1B04-4765-8672-F9E6D2A6BF03}"/>
+    <cellStyle name="60% — акцент5 12" xfId="279" xr:uid="{BBFA224A-BC6A-4296-BDD4-D57F5CC7ECD8}"/>
+    <cellStyle name="60% — акцент5 13" xfId="299" xr:uid="{72A535DD-8737-43A5-9733-4D194E0BDF52}"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="82" xr:uid="{1CF840C5-FCAF-4769-AA2E-56A2A9FABDBF}"/>
     <cellStyle name="60% — акцент5 4" xfId="102" xr:uid="{8F14EE2B-AD48-4A3D-A72C-F0DD86F09DEF}"/>
@@ -2174,6 +2317,9 @@
     <cellStyle name="60% — акцент5 9" xfId="219" xr:uid="{C766934A-6238-478B-958E-27E6B0327C0A}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — акцент6 10" xfId="242" xr:uid="{DAC3341F-6285-4327-800D-56A7EE54036C}"/>
+    <cellStyle name="60% — акцент6 11" xfId="262" xr:uid="{6F372E31-28D3-4805-9F1B-E3E691877BC1}"/>
+    <cellStyle name="60% — акцент6 12" xfId="282" xr:uid="{2860CCBD-167C-45DC-A90E-B5840581AAEF}"/>
+    <cellStyle name="60% — акцент6 13" xfId="302" xr:uid="{9178E4A4-0874-4E4F-A54C-95B24154BDAC}"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="85" xr:uid="{75BF419A-0534-4452-98EA-61ABE8A6466A}"/>
     <cellStyle name="60% — акцент6 4" xfId="105" xr:uid="{DF931EE7-201B-4475-A672-22FEAF243339}"/>
@@ -2204,6 +2350,9 @@
     <cellStyle name="Обычный 10" xfId="183" xr:uid="{1731A759-F09B-47B4-90E7-FC71596DD9B9}"/>
     <cellStyle name="Обычный 11" xfId="203" xr:uid="{BBCB6053-5D78-4026-8F76-AF5ACFA3EB10}"/>
     <cellStyle name="Обычный 12" xfId="223" xr:uid="{ABF31AE2-5240-470B-9A01-36AF3986DC9C}"/>
+    <cellStyle name="Обычный 13" xfId="243" xr:uid="{189B381B-62E6-4B52-941A-9EFE21219A25}"/>
+    <cellStyle name="Обычный 14" xfId="263" xr:uid="{793DBC4A-19AA-4DA5-B45D-D81B089AA2C9}"/>
+    <cellStyle name="Обычный 15" xfId="283" xr:uid="{DCB14A2D-7387-4462-B9A9-12078CB048A1}"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Обычный 2 2" xfId="163" xr:uid="{732026BE-6E1A-41F8-B00E-7A1D686E0960}"/>
     <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
@@ -2219,6 +2368,9 @@
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 10" xfId="204" xr:uid="{4BAEAB45-2126-4152-BC23-55FC028C4DDD}"/>
     <cellStyle name="Примечание 11" xfId="224" xr:uid="{CCD7AA48-6357-4DB5-A8FC-94CDA8794710}"/>
+    <cellStyle name="Примечание 12" xfId="244" xr:uid="{652FE66E-3ABA-483C-935D-210D028640E5}"/>
+    <cellStyle name="Примечание 13" xfId="264" xr:uid="{35848CBB-23C2-458F-96CF-4F99219A7FAC}"/>
+    <cellStyle name="Примечание 14" xfId="284" xr:uid="{1C678CB3-12D8-4F06-9433-DDDCAB829015}"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Примечание 2 2" xfId="168" xr:uid="{13F6CE95-AF9C-46DC-A67B-6B9855549B90}"/>
     <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
@@ -4339,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X87"/>
   <sheetViews>
-    <sheetView topLeftCell="G36" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="G37" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5709,18 +5861,18 @@
         <v>13.186813186813186</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="82"/>
-    </row>
-    <row r="36" spans="1:14" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="81"/>
+    </row>
+    <row r="36" spans="1:19" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>78</v>
       </c>
@@ -5750,7 +5902,7 @@
         <v>91</v>
       </c>
       <c r="L36" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M36" s="28" t="s">
         <v>60</v>
@@ -5758,8 +5910,12 @@
       <c r="N36" s="28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="P36" s="83"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+    </row>
+    <row r="37" spans="1:19" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>63</v>
       </c>
@@ -5780,22 +5936,22 @@
         <v>open_home_page</v>
       </c>
       <c r="G37" s="52">
-        <f>C37/3</f>
-        <v>171.0325433138664</v>
+        <f>C37/3*4</f>
+        <v>684.13017325546559</v>
       </c>
       <c r="H37" s="42">
         <f>VLOOKUP(K37,SummaryReport!A:J,8,FALSE)</f>
-        <v>2054</v>
-      </c>
-      <c r="I37" s="80">
+        <v>681</v>
+      </c>
+      <c r="I37" s="79">
         <f>1-G37/H37</f>
-        <v>0.9167319652804935</v>
+        <v>-4.5964364984809603E-3</v>
       </c>
       <c r="K37" s="46" t="str">
         <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
         <v>open_home_page</v>
       </c>
-      <c r="L37" s="78">
+      <c r="L37" s="19">
         <f>C37*4</f>
         <v>2052.3905197663967</v>
       </c>
@@ -5803,12 +5959,16 @@
         <f>VLOOKUP(F37,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>2054</v>
       </c>
-      <c r="N37" s="79">
-        <f>1-L37/H37</f>
+      <c r="N37" s="78">
+        <f>1-L37/M37</f>
         <v>7.8358336592176947E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="P37" s="87"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="85"/>
+    </row>
+    <row r="38" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>0</v>
       </c>
@@ -5829,22 +5989,22 @@
         <v>enter_login</v>
       </c>
       <c r="G38" s="52">
-        <f t="shared" ref="G38:G48" si="28">C38/3</f>
-        <v>138.60011088143398</v>
+        <f t="shared" ref="G38:G48" si="28">C38/3*4</f>
+        <v>554.40044352573591</v>
       </c>
       <c r="H38" s="42">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
-        <v>1664</v>
+        <v>555</v>
       </c>
       <c r="I38" s="25">
         <f>1-G38/H38</f>
-        <v>0.91670666413375357</v>
+        <v>1.0802819356109383E-3</v>
       </c>
       <c r="K38" s="46" t="str">
         <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>enter_login</v>
       </c>
-      <c r="L38" s="78">
+      <c r="L38" s="19">
         <f t="shared" ref="L38:L48" si="29">C38*4</f>
         <v>1663.2013305772077</v>
       </c>
@@ -5852,12 +6012,16 @@
         <f>VLOOKUP(F38,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>1664</v>
       </c>
-      <c r="N38" s="79">
-        <f>1-L38/H38</f>
+      <c r="N38" s="78">
+        <f t="shared" ref="N38:N48" si="30">1-L38/M38</f>
         <v>4.7996960504348429E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="P38" s="87"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="85"/>
+    </row>
+    <row r="39" spans="1:19" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>77</v>
       </c>
@@ -5879,21 +6043,21 @@
       </c>
       <c r="G39" s="52">
         <f t="shared" si="28"/>
-        <v>104.60011088143396</v>
+        <v>418.40044352573585</v>
       </c>
       <c r="H39" s="42">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
-        <v>1256</v>
+        <v>418</v>
       </c>
       <c r="I39" s="25">
         <f>1-G39/H39</f>
-        <v>0.91671965694153346</v>
+        <v>-9.5799886539671419E-4</v>
       </c>
       <c r="K39" s="46" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>click_flights</v>
       </c>
-      <c r="L39" s="78">
+      <c r="L39" s="19">
         <f t="shared" si="29"/>
         <v>1255.2013305772075</v>
       </c>
@@ -5901,12 +6065,16 @@
         <f>VLOOKUP(F39,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>1256</v>
       </c>
-      <c r="N39" s="79">
-        <f>1-L39/H39</f>
+      <c r="N39" s="78">
+        <f t="shared" si="30"/>
         <v>6.35883298401696E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="P39" s="87"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="85"/>
+    </row>
+    <row r="40" spans="1:19" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>1</v>
       </c>
@@ -5928,21 +6096,21 @@
       </c>
       <c r="G40" s="52">
         <f t="shared" si="28"/>
-        <v>91.41329769462078</v>
+        <v>365.65319077848312</v>
       </c>
       <c r="H40" s="42">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>1096</v>
+        <v>365</v>
       </c>
       <c r="I40" s="25">
-        <f t="shared" ref="I40:I48" si="30">1-G40/H40</f>
-        <v>0.9165937064830102</v>
+        <f t="shared" ref="I40:I48" si="31">1-G40/H40</f>
+        <v>-1.7895637766660588E-3</v>
       </c>
       <c r="K40" s="46" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>search_tickets</v>
       </c>
-      <c r="L40" s="78">
+      <c r="L40" s="19">
         <f t="shared" si="29"/>
         <v>1096.9595723354494</v>
       </c>
@@ -5950,12 +6118,16 @@
         <f>VLOOKUP(F40,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>1096</v>
       </c>
-      <c r="N40" s="79">
-        <f>1-L40/H40</f>
+      <c r="N40" s="78">
+        <f t="shared" si="30"/>
         <v>-8.7552220387721036E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="P40" s="87"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="85"/>
+    </row>
+    <row r="41" spans="1:19" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>12</v>
       </c>
@@ -5977,21 +6149,21 @@
       </c>
       <c r="G41" s="52">
         <f t="shared" si="28"/>
-        <v>91.41329769462078</v>
+        <v>365.65319077848312</v>
       </c>
       <c r="H41" s="42">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>1095</v>
+        <v>366</v>
       </c>
       <c r="I41" s="25">
-        <f t="shared" si="30"/>
-        <v>0.91651753635194444</v>
+        <f t="shared" si="31"/>
+        <v>9.4756617900781936E-4</v>
       </c>
       <c r="K41" s="46" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>choose_ticket</v>
       </c>
-      <c r="L41" s="78">
+      <c r="L41" s="19">
         <f t="shared" si="29"/>
         <v>1096.9595723354494</v>
       </c>
@@ -5999,12 +6171,16 @@
         <f>VLOOKUP(F41,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>1095</v>
       </c>
-      <c r="N41" s="79">
-        <f>1-L41/H41</f>
+      <c r="N41" s="78">
+        <f t="shared" si="30"/>
         <v>-1.7895637766660588E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="P41" s="87"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="85"/>
+    </row>
+    <row r="42" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>3</v>
       </c>
@@ -6026,21 +6202,21 @@
       </c>
       <c r="G42" s="52">
         <f t="shared" si="28"/>
-        <v>58.536585365853654</v>
+        <v>234.14634146341461</v>
       </c>
       <c r="H42" s="42">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>703</v>
+        <v>236</v>
       </c>
       <c r="I42" s="25">
-        <f t="shared" si="30"/>
-        <v>0.91673316448669462</v>
+        <f t="shared" si="31"/>
+        <v>7.854485324514382E-3</v>
       </c>
       <c r="K42" s="46" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>payment</v>
       </c>
-      <c r="L42" s="78">
+      <c r="L42" s="19">
         <f t="shared" si="29"/>
         <v>702.43902439024384</v>
       </c>
@@ -6048,12 +6224,16 @@
         <f>VLOOKUP(F42,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>703</v>
       </c>
-      <c r="N42" s="79">
-        <f>1-L42/H42</f>
+      <c r="N42" s="78">
+        <f t="shared" si="30"/>
         <v>7.9797384033597485E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="P42" s="87"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="85"/>
+    </row>
+    <row r="43" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>4</v>
       </c>
@@ -6075,21 +6255,21 @@
       </c>
       <c r="G43" s="52">
         <f t="shared" si="28"/>
-        <v>95.723398552666836</v>
+        <v>382.89359421066735</v>
       </c>
       <c r="H43" s="42">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>1150</v>
+        <v>383</v>
       </c>
       <c r="I43" s="25">
-        <f t="shared" si="30"/>
-        <v>0.91676226212811573</v>
+        <f t="shared" si="31"/>
+        <v>2.778219042628427E-4</v>
       </c>
       <c r="K43" s="46" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>click_itinerary</v>
       </c>
-      <c r="L43" s="78">
+      <c r="L43" s="19">
         <f t="shared" si="29"/>
         <v>1148.6807826320021</v>
       </c>
@@ -6097,12 +6277,16 @@
         <f>VLOOKUP(F43,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>1150</v>
       </c>
-      <c r="N43" s="79">
-        <f>1-L43/H43</f>
+      <c r="N43" s="78">
+        <f t="shared" si="30"/>
         <v>1.1471455373894823E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="P43" s="87"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="85"/>
+    </row>
+    <row r="44" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>13</v>
       </c>
@@ -6124,21 +6308,21 @@
       </c>
       <c r="G44" s="52">
         <f t="shared" si="28"/>
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="H44" s="42">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>285</v>
+        <v>96</v>
       </c>
       <c r="I44" s="25">
-        <f t="shared" si="30"/>
-        <v>0.91578947368421049</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="K44" s="46" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>delete_ticket</v>
       </c>
-      <c r="L44" s="78">
+      <c r="L44" s="19">
         <f t="shared" si="29"/>
         <v>288</v>
       </c>
@@ -6146,12 +6330,16 @@
         <f>VLOOKUP(F44,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>285</v>
       </c>
-      <c r="N44" s="79">
-        <f>1-L44/H44</f>
+      <c r="N44" s="78">
+        <f t="shared" si="30"/>
         <v>-1.0526315789473717E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="P44" s="87"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="85"/>
+    </row>
+    <row r="45" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>6</v>
       </c>
@@ -6173,21 +6361,21 @@
       </c>
       <c r="G45" s="52">
         <f t="shared" si="28"/>
-        <v>112.49595794801273</v>
+        <v>449.98383179205092</v>
       </c>
       <c r="H45" s="42">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
-        <v>1347</v>
+        <v>451</v>
       </c>
       <c r="I45" s="25">
-        <f t="shared" si="30"/>
-        <v>0.91648406982330166</v>
+        <f t="shared" si="31"/>
+        <v>2.2531445852529419E-3</v>
       </c>
       <c r="K45" s="46" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>logout</v>
       </c>
-      <c r="L45" s="78">
+      <c r="L45" s="19">
         <f t="shared" si="29"/>
         <v>1349.9514953761527</v>
       </c>
@@ -6195,12 +6383,16 @@
         <f>VLOOKUP(F45,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>1347</v>
       </c>
-      <c r="N45" s="79">
-        <f>1-L45/H45</f>
+      <c r="N45" s="78">
+        <f t="shared" si="30"/>
         <v>-2.1911621203807297E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="P45" s="87"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="87"/>
+      <c r="S45" s="85"/>
+    </row>
+    <row r="46" spans="1:19" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>65</v>
       </c>
@@ -6222,21 +6414,21 @@
       </c>
       <c r="G46" s="52">
         <f t="shared" si="28"/>
-        <v>32.432432432432435</v>
+        <v>129.72972972972974</v>
       </c>
       <c r="H46" s="42">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
-        <v>388</v>
+        <v>130</v>
       </c>
       <c r="I46" s="25">
-        <f t="shared" si="30"/>
-        <v>0.91641125661744216</v>
+        <f t="shared" si="31"/>
+        <v>2.0790020790020236E-3</v>
       </c>
       <c r="K46" s="46" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>click_sign_up_now</v>
       </c>
-      <c r="L46" s="78">
+      <c r="L46" s="19">
         <f t="shared" si="29"/>
         <v>389.18918918918922</v>
       </c>
@@ -6244,12 +6436,16 @@
         <f>VLOOKUP(F46,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>388</v>
       </c>
-      <c r="N46" s="79">
-        <f>1-L46/H46</f>
+      <c r="N46" s="78">
+        <f t="shared" si="30"/>
         <v>-3.0649205906938537E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="P46" s="87"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="85"/>
+    </row>
+    <row r="47" spans="1:19" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>64</v>
       </c>
@@ -6271,21 +6467,21 @@
       </c>
       <c r="G47" s="52">
         <f t="shared" si="28"/>
-        <v>32.432432432432435</v>
+        <v>129.72972972972974</v>
       </c>
       <c r="H47" s="42">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
-        <v>388</v>
+        <v>131</v>
       </c>
       <c r="I47" s="25">
-        <f t="shared" si="30"/>
-        <v>0.91641125661744216</v>
+        <f t="shared" si="31"/>
+        <v>9.6967196203836536E-3</v>
       </c>
       <c r="K47" s="46" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
         <v>enter_Customer_Profile</v>
       </c>
-      <c r="L47" s="78">
+      <c r="L47" s="19">
         <f t="shared" si="29"/>
         <v>389.18918918918922</v>
       </c>
@@ -6293,12 +6489,16 @@
         <f>VLOOKUP(F47,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>388</v>
       </c>
-      <c r="N47" s="79">
-        <f>1-L47/H47</f>
+      <c r="N47" s="78">
+        <f t="shared" si="30"/>
         <v>-3.0649205906938537E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="P47" s="87"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="85"/>
+    </row>
+    <row r="48" spans="1:19" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>66</v>
       </c>
@@ -6320,21 +6520,21 @@
       </c>
       <c r="G48" s="52">
         <f t="shared" si="28"/>
-        <v>32.432432432432435</v>
+        <v>129.72972972972974</v>
       </c>
       <c r="H48" s="42">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>389</v>
+        <v>130</v>
       </c>
       <c r="I48" s="25">
-        <f t="shared" si="30"/>
-        <v>0.91662613770582924</v>
+        <f t="shared" si="31"/>
+        <v>2.0790020790020236E-3</v>
       </c>
       <c r="K48" s="46" t="str">
         <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
         <v>click_continue</v>
       </c>
-      <c r="L48" s="78">
+      <c r="L48" s="19">
         <f t="shared" si="29"/>
         <v>389.18918918918922</v>
       </c>
@@ -6342,12 +6542,16 @@
         <f>VLOOKUP(F48,SummaryReport_L0!A:J,8,FALSE)</f>
         <v>389</v>
       </c>
-      <c r="N48" s="79">
-        <f>1-L48/H48</f>
+      <c r="N48" s="78">
+        <f t="shared" si="30"/>
         <v>-4.8634753004939135E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P48" s="87"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="85"/>
+    </row>
+    <row r="49" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
         <v>7</v>
       </c>
@@ -6360,25 +6564,29 @@
         <v>2955.3377988894199</v>
       </c>
       <c r="D49" s="24">
-        <f t="shared" ref="D49" si="31">1-B49/C49</f>
+        <f t="shared" ref="D49" si="32">1-B49/C49</f>
         <v>3.83638002183051E-3</v>
       </c>
       <c r="H49">
         <f>SUM(H37:H48)</f>
-        <v>11815</v>
+        <v>3942</v>
       </c>
       <c r="M49">
         <f>SUM(M37:M48)</f>
         <v>11815</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="87"/>
+      <c r="S49" s="87"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H50">
         <f>H49*3</f>
-        <v>35445</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C51" s="31" t="s">
         <v>76</v>
       </c>
@@ -6388,7 +6596,7 @@
       <c r="G51" s="31"/>
       <c r="H51" s="31"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>93</v>
       </c>
@@ -6411,7 +6619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="70" t="s">
         <v>8</v>
       </c>
@@ -6446,7 +6654,7 @@
         <v>1.8333333333333202E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="70" t="s">
         <v>101</v>
       </c>
@@ -6481,7 +6689,7 @@
         <v>-4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="70" t="s">
         <v>94</v>
       </c>
@@ -6515,7 +6723,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="70" t="s">
         <v>69</v>
       </c>
@@ -6549,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="70" t="s">
         <v>70</v>
       </c>
@@ -6584,13 +6792,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G58" s="19">
         <f>SUM(G53:G57)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -6619,7 +6827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -6652,7 +6860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -6660,22 +6868,22 @@
         <v>68</v>
       </c>
       <c r="C63" s="19">
-        <f t="shared" ref="C63:C87" si="32">VLOOKUP(A63,$A$53:$H$57,6,FALSE)</f>
+        <f t="shared" ref="C63:C87" si="33">VLOOKUP(A63,$A$53:$H$57,6,FALSE)</f>
         <v>1.9633333333333336</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D87" si="33">VLOOKUP(A63,$A$53:$H$57,3,FALSE)</f>
+        <f t="shared" ref="D63:D87" si="34">VLOOKUP(A63,$A$53:$H$57,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="E63" s="19">
-        <f t="shared" ref="E63:E87" si="34">60/D63</f>
+        <f t="shared" ref="E63:E87" si="35">60/D63</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F63">
         <v>20</v>
       </c>
       <c r="G63" s="19">
-        <f t="shared" ref="G63:G87" si="35">C63*E63*F63</f>
+        <f t="shared" ref="G63:G87" si="36">C63*E63*F63</f>
         <v>41.333333333333336</v>
       </c>
       <c r="I63" s="16" t="s">
@@ -6685,7 +6893,7 @@
         <v>154.66666666666669</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -6693,22 +6901,22 @@
         <v>96</v>
       </c>
       <c r="C64" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>57</v>
       </c>
       <c r="E64" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I64" s="16" t="s">
@@ -6726,22 +6934,22 @@
         <v>97</v>
       </c>
       <c r="C65" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>57</v>
       </c>
       <c r="E65" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F65">
         <v>20</v>
       </c>
       <c r="G65" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I65" s="73" t="s">
@@ -6759,22 +6967,22 @@
         <v>98</v>
       </c>
       <c r="C66" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D66">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>57</v>
       </c>
       <c r="E66" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F66">
         <v>20</v>
       </c>
       <c r="G66" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I66" s="73" t="s">
@@ -6792,22 +7000,22 @@
         <v>99</v>
       </c>
       <c r="C67" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D67">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>57</v>
       </c>
       <c r="E67" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F67">
         <v>20</v>
       </c>
       <c r="G67" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I67" s="16" t="s">
@@ -6825,22 +7033,22 @@
         <v>100</v>
       </c>
       <c r="C68" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D68">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>57</v>
       </c>
       <c r="E68" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F68">
         <v>20</v>
       </c>
       <c r="G68" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I68" s="73" t="s">
@@ -6858,22 +7066,22 @@
         <v>95</v>
       </c>
       <c r="C69" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="E69" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.4</v>
       </c>
       <c r="F69">
         <v>20</v>
       </c>
       <c r="G69" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I69" s="16" t="s">
@@ -6891,22 +7099,22 @@
         <v>68</v>
       </c>
       <c r="C70" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="E70" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.4</v>
       </c>
       <c r="F70">
         <v>20</v>
       </c>
       <c r="G70" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I70" s="73" t="s">
@@ -6924,22 +7132,22 @@
         <v>100</v>
       </c>
       <c r="C71" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D71">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="E71" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.4</v>
       </c>
       <c r="F71">
         <v>20</v>
       </c>
       <c r="G71" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="I71" s="16" t="s">
@@ -6957,22 +7165,22 @@
         <v>95</v>
       </c>
       <c r="C72" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>115</v>
       </c>
       <c r="E72" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F72">
         <v>20</v>
       </c>
       <c r="G72" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
     </row>
@@ -6984,22 +7192,22 @@
         <v>68</v>
       </c>
       <c r="C73" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>115</v>
       </c>
       <c r="E73" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F73">
         <v>20</v>
       </c>
       <c r="G73" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
     </row>
@@ -7011,22 +7219,22 @@
         <v>102</v>
       </c>
       <c r="C74" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>115</v>
       </c>
       <c r="E74" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F74">
         <v>20</v>
       </c>
       <c r="G74" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
     </row>
@@ -7038,22 +7246,22 @@
         <v>103</v>
       </c>
       <c r="C75" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>115</v>
       </c>
       <c r="E75" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F75">
         <v>20</v>
       </c>
       <c r="G75" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
     </row>
@@ -7065,22 +7273,22 @@
         <v>100</v>
       </c>
       <c r="C76" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>115</v>
       </c>
       <c r="E76" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F76">
         <v>20</v>
       </c>
       <c r="G76" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
     </row>
@@ -7092,22 +7300,22 @@
         <v>95</v>
       </c>
       <c r="C77" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>180</v>
       </c>
       <c r="E77" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
       <c r="G77" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -7119,11 +7327,11 @@
         <v>95</v>
       </c>
       <c r="C78" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>180</v>
       </c>
       <c r="E78" s="19">
@@ -7134,7 +7342,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -7146,22 +7354,22 @@
         <v>68</v>
       </c>
       <c r="C79" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>180</v>
       </c>
       <c r="E79" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F79">
         <v>20</v>
       </c>
       <c r="G79" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -7173,22 +7381,22 @@
         <v>96</v>
       </c>
       <c r="C80" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>180</v>
       </c>
       <c r="E80" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F80">
         <v>20</v>
       </c>
       <c r="G80" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -7200,22 +7408,22 @@
         <v>97</v>
       </c>
       <c r="C81" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>180</v>
       </c>
       <c r="E81" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F81">
         <v>20</v>
       </c>
       <c r="G81" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -7227,22 +7435,22 @@
         <v>98</v>
       </c>
       <c r="C82" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>180</v>
       </c>
       <c r="E82" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F82">
         <v>20</v>
       </c>
       <c r="G82" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -7254,22 +7462,22 @@
         <v>100</v>
       </c>
       <c r="C83" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>180</v>
       </c>
       <c r="E83" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F83">
         <v>20</v>
       </c>
       <c r="G83" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -7281,22 +7489,22 @@
         <v>95</v>
       </c>
       <c r="C84" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="D84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="E84" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="F84">
         <v>20</v>
       </c>
       <c r="G84" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>40</v>
       </c>
     </row>
@@ -7308,22 +7516,22 @@
         <v>68</v>
       </c>
       <c r="C85" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="D85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="E85" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="F85">
         <v>20</v>
       </c>
       <c r="G85" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>40</v>
       </c>
     </row>
@@ -7335,22 +7543,22 @@
         <v>102</v>
       </c>
       <c r="C86" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="D86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="E86" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="F86">
         <v>20</v>
       </c>
       <c r="G86" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>40</v>
       </c>
     </row>
@@ -7362,22 +7570,22 @@
         <v>100</v>
       </c>
       <c r="C87" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="D87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="E87" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="F87">
         <v>20</v>
       </c>
       <c r="G87" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>40</v>
       </c>
     </row>
@@ -7528,10 +7736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L25" sqref="L24:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7578,610 +7786,610 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="84">
-        <v>0</v>
-      </c>
-      <c r="D2" s="84">
-        <v>0</v>
-      </c>
-      <c r="E2" s="84">
-        <v>7.407</v>
-      </c>
-      <c r="F2" s="84">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="G2" s="84">
-        <v>3.2069999999999999</v>
-      </c>
-      <c r="H2" s="84">
-        <v>2050</v>
-      </c>
-      <c r="I2" s="84">
-        <v>3</v>
-      </c>
-      <c r="J2" s="84">
+      <c r="C2" s="89">
+        <v>0</v>
+      </c>
+      <c r="D2" s="89">
+        <v>0</v>
+      </c>
+      <c r="E2" s="89">
+        <v>8.6859999999999999</v>
+      </c>
+      <c r="F2" s="89">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="G2" s="89">
+        <v>4.6920000000000002</v>
+      </c>
+      <c r="H2" s="89">
+        <v>686</v>
+      </c>
+      <c r="I2" s="89">
+        <v>0</v>
+      </c>
+      <c r="J2" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="84">
-        <v>0</v>
-      </c>
-      <c r="D3" s="84">
-        <v>0</v>
-      </c>
-      <c r="E3" s="84">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="F3" s="84">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G3" s="84">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H3" s="84">
-        <v>1095</v>
-      </c>
-      <c r="I3" s="84">
-        <v>0</v>
-      </c>
-      <c r="J3" s="84">
+      <c r="C3" s="89">
+        <v>0</v>
+      </c>
+      <c r="D3" s="89">
+        <v>0</v>
+      </c>
+      <c r="E3" s="89">
+        <v>1.865</v>
+      </c>
+      <c r="F3" s="89">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G3" s="89">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H3" s="89">
+        <v>366</v>
+      </c>
+      <c r="I3" s="89">
+        <v>0</v>
+      </c>
+      <c r="J3" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="84">
-        <v>0</v>
-      </c>
-      <c r="D4" s="84">
-        <v>0</v>
-      </c>
-      <c r="E4" s="84">
-        <v>3.5670000000000002</v>
-      </c>
-      <c r="F4" s="84">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="G4" s="84">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="H4" s="84">
-        <v>389</v>
-      </c>
-      <c r="I4" s="84">
-        <v>0</v>
-      </c>
-      <c r="J4" s="84">
+      <c r="C4" s="89">
+        <v>0</v>
+      </c>
+      <c r="D4" s="89">
+        <v>0</v>
+      </c>
+      <c r="E4" s="89">
+        <v>3.7360000000000002</v>
+      </c>
+      <c r="F4" s="89">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="G4" s="89">
+        <v>1.403</v>
+      </c>
+      <c r="H4" s="89">
+        <v>130</v>
+      </c>
+      <c r="I4" s="89">
+        <v>0</v>
+      </c>
+      <c r="J4" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="84">
-        <v>0</v>
-      </c>
-      <c r="D5" s="84">
-        <v>0</v>
-      </c>
-      <c r="E5" s="84">
-        <v>4.944</v>
-      </c>
-      <c r="F5" s="84">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="G5" s="84">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="H5" s="84">
-        <v>1256</v>
-      </c>
-      <c r="I5" s="84">
-        <v>0</v>
-      </c>
-      <c r="J5" s="84">
+      <c r="C5" s="89">
+        <v>0</v>
+      </c>
+      <c r="D5" s="89">
+        <v>0</v>
+      </c>
+      <c r="E5" s="89">
+        <v>4.3840000000000003</v>
+      </c>
+      <c r="F5" s="89">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="G5" s="89">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="H5" s="89">
+        <v>418</v>
+      </c>
+      <c r="I5" s="89">
+        <v>0</v>
+      </c>
+      <c r="J5" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="84">
-        <v>0</v>
-      </c>
-      <c r="D6" s="84">
-        <v>0</v>
-      </c>
-      <c r="E6" s="84">
-        <v>4.9080000000000004</v>
-      </c>
-      <c r="F6" s="84">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="G6" s="84">
-        <v>1.165</v>
-      </c>
-      <c r="H6" s="84">
-        <v>1150</v>
-      </c>
-      <c r="I6" s="84">
-        <v>0</v>
-      </c>
-      <c r="J6" s="84">
+      <c r="C6" s="89">
+        <v>0</v>
+      </c>
+      <c r="D6" s="89">
+        <v>0</v>
+      </c>
+      <c r="E6" s="89">
+        <v>4.1529999999999996</v>
+      </c>
+      <c r="F6" s="89">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="G6" s="89">
+        <v>1.4</v>
+      </c>
+      <c r="H6" s="89">
+        <v>383</v>
+      </c>
+      <c r="I6" s="89">
+        <v>0</v>
+      </c>
+      <c r="J6" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="84">
-        <v>0</v>
-      </c>
-      <c r="D7" s="84">
-        <v>0</v>
-      </c>
-      <c r="E7" s="84">
-        <v>3.718</v>
-      </c>
-      <c r="F7" s="84">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="G7" s="84">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="H7" s="84">
-        <v>388</v>
-      </c>
-      <c r="I7" s="84">
-        <v>0</v>
-      </c>
-      <c r="J7" s="84">
+      <c r="C7" s="89">
+        <v>0</v>
+      </c>
+      <c r="D7" s="89">
+        <v>0</v>
+      </c>
+      <c r="E7" s="89">
+        <v>2.7149999999999999</v>
+      </c>
+      <c r="F7" s="89">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G7" s="89">
+        <v>1.294</v>
+      </c>
+      <c r="H7" s="89">
+        <v>130</v>
+      </c>
+      <c r="I7" s="89">
+        <v>0</v>
+      </c>
+      <c r="J7" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="84">
-        <v>0</v>
-      </c>
-      <c r="D8" s="84">
-        <v>0</v>
-      </c>
-      <c r="E8" s="84">
-        <v>1.649</v>
-      </c>
-      <c r="F8" s="84">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="G8" s="84">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="H8" s="84">
-        <v>285</v>
-      </c>
-      <c r="I8" s="84">
-        <v>3</v>
-      </c>
-      <c r="J8" s="84">
+      <c r="C8" s="89">
+        <v>0</v>
+      </c>
+      <c r="D8" s="89">
+        <v>0</v>
+      </c>
+      <c r="E8" s="89">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="F8" s="89">
+        <v>0.35</v>
+      </c>
+      <c r="G8" s="89">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H8" s="89">
+        <v>96</v>
+      </c>
+      <c r="I8" s="89">
+        <v>0</v>
+      </c>
+      <c r="J8" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="84">
-        <v>0</v>
-      </c>
-      <c r="D9" s="84">
-        <v>0</v>
-      </c>
-      <c r="E9" s="84">
-        <v>2</v>
-      </c>
-      <c r="F9" s="84">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="G9" s="84">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H9" s="84">
-        <v>388</v>
-      </c>
-      <c r="I9" s="84">
-        <v>0</v>
-      </c>
-      <c r="J9" s="84">
+      <c r="C9" s="89">
+        <v>0</v>
+      </c>
+      <c r="D9" s="89">
+        <v>0</v>
+      </c>
+      <c r="E9" s="89">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="F9" s="89">
+        <v>0.155</v>
+      </c>
+      <c r="G9" s="89">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H9" s="89">
+        <v>131</v>
+      </c>
+      <c r="I9" s="89">
+        <v>0</v>
+      </c>
+      <c r="J9" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="84">
-        <v>0</v>
-      </c>
-      <c r="D10" s="84">
-        <v>0</v>
-      </c>
-      <c r="E10" s="84">
-        <v>4.33</v>
-      </c>
-      <c r="F10" s="84">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="G10" s="84">
-        <v>1.236</v>
-      </c>
-      <c r="H10" s="84">
-        <v>1664</v>
-      </c>
-      <c r="I10" s="84">
-        <v>0</v>
-      </c>
-      <c r="J10" s="84">
+      <c r="C10" s="89">
+        <v>0</v>
+      </c>
+      <c r="D10" s="89">
+        <v>0</v>
+      </c>
+      <c r="E10" s="89">
+        <v>4.3170000000000002</v>
+      </c>
+      <c r="F10" s="89">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="G10" s="89">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="H10" s="89">
+        <v>555</v>
+      </c>
+      <c r="I10" s="89">
+        <v>0</v>
+      </c>
+      <c r="J10" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="84">
-        <v>0</v>
-      </c>
-      <c r="D11" s="84">
-        <v>0</v>
-      </c>
-      <c r="E11" s="84">
-        <v>3.044</v>
-      </c>
-      <c r="F11" s="84">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="G11" s="84">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="H11" s="84">
-        <v>1347</v>
-      </c>
-      <c r="I11" s="84">
-        <v>0</v>
-      </c>
-      <c r="J11" s="84">
+      <c r="C11" s="89">
+        <v>0</v>
+      </c>
+      <c r="D11" s="89">
+        <v>0</v>
+      </c>
+      <c r="E11" s="89">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="F11" s="89">
+        <v>0.441</v>
+      </c>
+      <c r="G11" s="89">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H11" s="89">
+        <v>451</v>
+      </c>
+      <c r="I11" s="89">
+        <v>0</v>
+      </c>
+      <c r="J11" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="84">
-        <v>0</v>
-      </c>
-      <c r="D12" s="84">
-        <v>0</v>
-      </c>
-      <c r="E12" s="84">
-        <v>3.5259999999999998</v>
-      </c>
-      <c r="F12" s="84">
-        <v>0.433</v>
-      </c>
-      <c r="G12" s="84">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="H12" s="84">
-        <v>2054</v>
-      </c>
-      <c r="I12" s="84">
-        <v>0</v>
-      </c>
-      <c r="J12" s="84">
+      <c r="C12" s="89">
+        <v>0</v>
+      </c>
+      <c r="D12" s="89">
+        <v>0</v>
+      </c>
+      <c r="E12" s="89">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="F12" s="89">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="G12" s="89">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="H12" s="89">
+        <v>681</v>
+      </c>
+      <c r="I12" s="89">
+        <v>0</v>
+      </c>
+      <c r="J12" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="84">
-        <v>0</v>
-      </c>
-      <c r="D13" s="84">
-        <v>0</v>
-      </c>
-      <c r="E13" s="84">
-        <v>3.0859999999999999</v>
-      </c>
-      <c r="F13" s="84">
-        <v>0.36</v>
-      </c>
-      <c r="G13" s="84">
-        <v>0.318</v>
-      </c>
-      <c r="H13" s="84">
-        <v>703</v>
-      </c>
-      <c r="I13" s="84">
-        <v>0</v>
-      </c>
-      <c r="J13" s="84">
+      <c r="C13" s="89">
+        <v>0</v>
+      </c>
+      <c r="D13" s="89">
+        <v>0</v>
+      </c>
+      <c r="E13" s="89">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="F13" s="89">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="G13" s="89">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H13" s="89">
+        <v>236</v>
+      </c>
+      <c r="I13" s="89">
+        <v>0</v>
+      </c>
+      <c r="J13" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="84">
-        <v>0</v>
-      </c>
-      <c r="D14" s="84">
-        <v>0</v>
-      </c>
-      <c r="E14" s="84">
-        <v>2.6389999999999998</v>
-      </c>
-      <c r="F14" s="84">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="G14" s="84">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="84">
-        <v>1096</v>
-      </c>
-      <c r="I14" s="84">
-        <v>0</v>
-      </c>
-      <c r="J14" s="84">
+      <c r="C14" s="89">
+        <v>0</v>
+      </c>
+      <c r="D14" s="89">
+        <v>0</v>
+      </c>
+      <c r="E14" s="89">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="F14" s="89">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G14" s="89">
+        <v>0.182</v>
+      </c>
+      <c r="H14" s="89">
+        <v>365</v>
+      </c>
+      <c r="I14" s="89">
+        <v>0</v>
+      </c>
+      <c r="J14" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="84">
-        <v>0</v>
-      </c>
-      <c r="D15" s="84">
-        <v>0</v>
-      </c>
-      <c r="E15" s="84">
-        <v>5.4740000000000002</v>
-      </c>
-      <c r="F15" s="84">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="G15" s="84">
-        <v>1.4990000000000001</v>
-      </c>
-      <c r="H15" s="84">
-        <v>120</v>
-      </c>
-      <c r="I15" s="84">
-        <v>0</v>
-      </c>
-      <c r="J15" s="84">
+      <c r="C15" s="89">
+        <v>0</v>
+      </c>
+      <c r="D15" s="89">
+        <v>0</v>
+      </c>
+      <c r="E15" s="89">
+        <v>6.0460000000000003</v>
+      </c>
+      <c r="F15" s="89">
+        <v>1.484</v>
+      </c>
+      <c r="G15" s="89">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="H15" s="89">
+        <v>40</v>
+      </c>
+      <c r="I15" s="89">
+        <v>0</v>
+      </c>
+      <c r="J15" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="84">
-        <v>0</v>
-      </c>
-      <c r="D16" s="84">
-        <v>0</v>
-      </c>
-      <c r="E16" s="84">
-        <v>6.5839999999999996</v>
-      </c>
-      <c r="F16" s="84">
-        <v>1.2130000000000001</v>
-      </c>
-      <c r="G16" s="84">
-        <v>3.0459999999999998</v>
-      </c>
-      <c r="H16" s="84">
-        <v>392</v>
-      </c>
-      <c r="I16" s="84">
-        <v>0</v>
-      </c>
-      <c r="J16" s="84">
+      <c r="C16" s="89">
+        <v>0</v>
+      </c>
+      <c r="D16" s="89">
+        <v>0</v>
+      </c>
+      <c r="E16" s="89">
+        <v>6.7709999999999999</v>
+      </c>
+      <c r="F16" s="89">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G16" s="89">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="H16" s="89">
+        <v>132</v>
+      </c>
+      <c r="I16" s="89">
+        <v>0</v>
+      </c>
+      <c r="J16" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="84">
-        <v>0</v>
-      </c>
-      <c r="D17" s="84">
-        <v>0</v>
-      </c>
-      <c r="E17" s="84">
-        <v>7.407</v>
-      </c>
-      <c r="F17" s="84">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="G17" s="84">
-        <v>3.1349999999999998</v>
-      </c>
-      <c r="H17" s="84">
-        <v>703</v>
-      </c>
-      <c r="I17" s="84">
-        <v>0</v>
-      </c>
-      <c r="J17" s="84">
+      <c r="C17" s="89">
+        <v>0</v>
+      </c>
+      <c r="D17" s="89">
+        <v>0</v>
+      </c>
+      <c r="E17" s="89">
+        <v>7.3520000000000003</v>
+      </c>
+      <c r="F17" s="89">
+        <v>1.66</v>
+      </c>
+      <c r="G17" s="89">
+        <v>4.585</v>
+      </c>
+      <c r="H17" s="89">
+        <v>235</v>
+      </c>
+      <c r="I17" s="89">
+        <v>0</v>
+      </c>
+      <c r="J17" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="84">
-        <v>0</v>
-      </c>
-      <c r="D18" s="84">
-        <v>0</v>
-      </c>
-      <c r="E18" s="84">
-        <v>6.11</v>
-      </c>
-      <c r="F18" s="84">
-        <v>1.387</v>
-      </c>
-      <c r="G18" s="84">
-        <v>3.8490000000000002</v>
-      </c>
-      <c r="H18" s="84">
-        <v>159</v>
-      </c>
-      <c r="I18" s="84">
-        <v>0</v>
-      </c>
-      <c r="J18" s="84">
+      <c r="C18" s="89">
+        <v>0</v>
+      </c>
+      <c r="D18" s="89">
+        <v>0</v>
+      </c>
+      <c r="E18" s="89">
+        <v>8.125</v>
+      </c>
+      <c r="F18" s="89">
+        <v>2.472</v>
+      </c>
+      <c r="G18" s="89">
+        <v>7.0220000000000002</v>
+      </c>
+      <c r="H18" s="89">
+        <v>52</v>
+      </c>
+      <c r="I18" s="89">
+        <v>0</v>
+      </c>
+      <c r="J18" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="84">
-        <v>0</v>
-      </c>
-      <c r="D19" s="84">
-        <v>0</v>
-      </c>
-      <c r="E19" s="84">
-        <v>7.2549999999999999</v>
-      </c>
-      <c r="F19" s="84">
-        <v>1.5</v>
-      </c>
-      <c r="G19" s="84">
-        <v>4.2229999999999999</v>
-      </c>
-      <c r="H19" s="84">
-        <v>285</v>
-      </c>
-      <c r="I19" s="84">
-        <v>3</v>
-      </c>
-      <c r="J19" s="84">
+      <c r="C19" s="89">
+        <v>0</v>
+      </c>
+      <c r="D19" s="89">
+        <v>0</v>
+      </c>
+      <c r="E19" s="89">
+        <v>8.6859999999999999</v>
+      </c>
+      <c r="F19" s="89">
+        <v>1.897</v>
+      </c>
+      <c r="G19" s="89">
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="H19" s="89">
+        <v>96</v>
+      </c>
+      <c r="I19" s="89">
+        <v>0</v>
+      </c>
+      <c r="J19" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="84">
-        <v>0</v>
-      </c>
-      <c r="D20" s="84">
-        <v>0</v>
-      </c>
-      <c r="E20" s="84">
-        <v>5.1509999999999998</v>
-      </c>
-      <c r="F20" s="84">
-        <v>1.101</v>
-      </c>
-      <c r="G20" s="84">
-        <v>2.952</v>
-      </c>
-      <c r="H20" s="84">
-        <v>391</v>
-      </c>
-      <c r="I20" s="84">
-        <v>0</v>
-      </c>
-      <c r="J20" s="84">
+      <c r="C20" s="89">
+        <v>0</v>
+      </c>
+      <c r="D20" s="89">
+        <v>0</v>
+      </c>
+      <c r="E20" s="89">
+        <v>6.62</v>
+      </c>
+      <c r="F20" s="89">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="G20" s="89">
+        <v>3.246</v>
+      </c>
+      <c r="H20" s="89">
+        <v>131</v>
+      </c>
+      <c r="I20" s="89">
+        <v>0</v>
+      </c>
+      <c r="J20" s="89">
         <v>0</v>
       </c>
     </row>
@@ -8209,6 +8417,78 @@
       <c r="I22" s="65"/>
       <c r="J22" s="65"/>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="89"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="89"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="89"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8218,8 +8498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47959B1A-2B5D-4EFC-A2DE-C17CCAD50E23}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8266,610 +8546,610 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="84">
-        <v>0</v>
-      </c>
-      <c r="D2" s="84">
-        <v>0</v>
-      </c>
-      <c r="E2" s="84">
+      <c r="C2" s="88">
+        <v>0</v>
+      </c>
+      <c r="D2" s="88">
+        <v>0</v>
+      </c>
+      <c r="E2" s="88">
         <v>7.407</v>
       </c>
-      <c r="F2" s="84">
+      <c r="F2" s="88">
         <v>1.2430000000000001</v>
       </c>
-      <c r="G2" s="84">
+      <c r="G2" s="88">
         <v>3.2069999999999999</v>
       </c>
-      <c r="H2" s="84">
+      <c r="H2" s="88">
         <v>2050</v>
       </c>
-      <c r="I2" s="84">
+      <c r="I2" s="88">
         <v>3</v>
       </c>
-      <c r="J2" s="84">
+      <c r="J2" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="84">
-        <v>0</v>
-      </c>
-      <c r="D3" s="84">
-        <v>0</v>
-      </c>
-      <c r="E3" s="84">
+      <c r="C3" s="88">
+        <v>0</v>
+      </c>
+      <c r="D3" s="88">
+        <v>0</v>
+      </c>
+      <c r="E3" s="88">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F3" s="84">
+      <c r="F3" s="88">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="84">
+      <c r="G3" s="88">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H3" s="84">
+      <c r="H3" s="88">
         <v>1095</v>
       </c>
-      <c r="I3" s="84">
-        <v>0</v>
-      </c>
-      <c r="J3" s="84">
+      <c r="I3" s="88">
+        <v>0</v>
+      </c>
+      <c r="J3" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="84">
-        <v>0</v>
-      </c>
-      <c r="D4" s="84">
-        <v>0</v>
-      </c>
-      <c r="E4" s="84">
+      <c r="C4" s="88">
+        <v>0</v>
+      </c>
+      <c r="D4" s="88">
+        <v>0</v>
+      </c>
+      <c r="E4" s="88">
         <v>3.5670000000000002</v>
       </c>
-      <c r="F4" s="84">
+      <c r="F4" s="88">
         <v>0.65900000000000003</v>
       </c>
-      <c r="G4" s="84">
+      <c r="G4" s="88">
         <v>1.2849999999999999</v>
       </c>
-      <c r="H4" s="84">
+      <c r="H4" s="88">
         <v>389</v>
       </c>
-      <c r="I4" s="84">
-        <v>0</v>
-      </c>
-      <c r="J4" s="84">
+      <c r="I4" s="88">
+        <v>0</v>
+      </c>
+      <c r="J4" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="84">
-        <v>0</v>
-      </c>
-      <c r="D5" s="84">
-        <v>0</v>
-      </c>
-      <c r="E5" s="84">
+      <c r="C5" s="88">
+        <v>0</v>
+      </c>
+      <c r="D5" s="88">
+        <v>0</v>
+      </c>
+      <c r="E5" s="88">
         <v>4.944</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="88">
         <v>0.59699999999999998</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="88">
         <v>0.78700000000000003</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="88">
         <v>1256</v>
       </c>
-      <c r="I5" s="84">
-        <v>0</v>
-      </c>
-      <c r="J5" s="84">
+      <c r="I5" s="88">
+        <v>0</v>
+      </c>
+      <c r="J5" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="84">
-        <v>0</v>
-      </c>
-      <c r="D6" s="84">
-        <v>0</v>
-      </c>
-      <c r="E6" s="84">
+      <c r="C6" s="88">
+        <v>0</v>
+      </c>
+      <c r="D6" s="88">
+        <v>0</v>
+      </c>
+      <c r="E6" s="88">
         <v>4.9080000000000004</v>
       </c>
-      <c r="F6" s="84">
+      <c r="F6" s="88">
         <v>0.66300000000000003</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="88">
         <v>1.165</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="88">
         <v>1150</v>
       </c>
-      <c r="I6" s="84">
-        <v>0</v>
-      </c>
-      <c r="J6" s="84">
+      <c r="I6" s="88">
+        <v>0</v>
+      </c>
+      <c r="J6" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="84">
-        <v>0</v>
-      </c>
-      <c r="D7" s="84">
-        <v>0</v>
-      </c>
-      <c r="E7" s="84">
+      <c r="C7" s="88">
+        <v>0</v>
+      </c>
+      <c r="D7" s="88">
+        <v>0</v>
+      </c>
+      <c r="E7" s="88">
         <v>3.718</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F7" s="88">
         <v>0.45300000000000001</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="88">
         <v>0.46400000000000002</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="88">
         <v>388</v>
       </c>
-      <c r="I7" s="84">
-        <v>0</v>
-      </c>
-      <c r="J7" s="84">
+      <c r="I7" s="88">
+        <v>0</v>
+      </c>
+      <c r="J7" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="84">
-        <v>0</v>
-      </c>
-      <c r="D8" s="84">
-        <v>0</v>
-      </c>
-      <c r="E8" s="84">
+      <c r="C8" s="88">
+        <v>0</v>
+      </c>
+      <c r="D8" s="88">
+        <v>0</v>
+      </c>
+      <c r="E8" s="88">
         <v>1.649</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="88">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="88">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="88">
         <v>285</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="88">
         <v>3</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="84">
-        <v>0</v>
-      </c>
-      <c r="D9" s="84">
-        <v>0</v>
-      </c>
-      <c r="E9" s="84">
+      <c r="C9" s="88">
+        <v>0</v>
+      </c>
+      <c r="D9" s="88">
+        <v>0</v>
+      </c>
+      <c r="E9" s="88">
         <v>2</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="88">
         <v>0.16200000000000001</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="88">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="88">
         <v>388</v>
       </c>
-      <c r="I9" s="84">
-        <v>0</v>
-      </c>
-      <c r="J9" s="84">
+      <c r="I9" s="88">
+        <v>0</v>
+      </c>
+      <c r="J9" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="84">
-        <v>0</v>
-      </c>
-      <c r="D10" s="84">
-        <v>0</v>
-      </c>
-      <c r="E10" s="84">
+      <c r="C10" s="88">
+        <v>0</v>
+      </c>
+      <c r="D10" s="88">
+        <v>0</v>
+      </c>
+      <c r="E10" s="88">
         <v>4.33</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="88">
         <v>0.70299999999999996</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="88">
         <v>1.236</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="88">
         <v>1664</v>
       </c>
-      <c r="I10" s="84">
-        <v>0</v>
-      </c>
-      <c r="J10" s="84">
+      <c r="I10" s="88">
+        <v>0</v>
+      </c>
+      <c r="J10" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="84">
-        <v>0</v>
-      </c>
-      <c r="D11" s="84">
-        <v>0</v>
-      </c>
-      <c r="E11" s="84">
+      <c r="C11" s="88">
+        <v>0</v>
+      </c>
+      <c r="D11" s="88">
+        <v>0</v>
+      </c>
+      <c r="E11" s="88">
         <v>3.044</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="88">
         <v>0.41099999999999998</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="88">
         <v>0.46899999999999997</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="88">
         <v>1347</v>
       </c>
-      <c r="I11" s="84">
-        <v>0</v>
-      </c>
-      <c r="J11" s="84">
+      <c r="I11" s="88">
+        <v>0</v>
+      </c>
+      <c r="J11" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="84">
-        <v>0</v>
-      </c>
-      <c r="D12" s="84">
-        <v>0</v>
-      </c>
-      <c r="E12" s="84">
+      <c r="C12" s="88">
+        <v>0</v>
+      </c>
+      <c r="D12" s="88">
+        <v>0</v>
+      </c>
+      <c r="E12" s="88">
         <v>3.5259999999999998</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="88">
         <v>0.433</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="88">
         <v>0.72299999999999998</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="88">
         <v>2054</v>
       </c>
-      <c r="I12" s="84">
-        <v>0</v>
-      </c>
-      <c r="J12" s="84">
+      <c r="I12" s="88">
+        <v>0</v>
+      </c>
+      <c r="J12" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="84">
-        <v>0</v>
-      </c>
-      <c r="D13" s="84">
-        <v>0</v>
-      </c>
-      <c r="E13" s="84">
+      <c r="C13" s="88">
+        <v>0</v>
+      </c>
+      <c r="D13" s="88">
+        <v>0</v>
+      </c>
+      <c r="E13" s="88">
         <v>3.0859999999999999</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="88">
         <v>0.36</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="88">
         <v>0.318</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="88">
         <v>703</v>
       </c>
-      <c r="I13" s="84">
-        <v>0</v>
-      </c>
-      <c r="J13" s="84">
+      <c r="I13" s="88">
+        <v>0</v>
+      </c>
+      <c r="J13" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="84">
-        <v>0</v>
-      </c>
-      <c r="D14" s="84">
-        <v>0</v>
-      </c>
-      <c r="E14" s="84">
+      <c r="C14" s="88">
+        <v>0</v>
+      </c>
+      <c r="D14" s="88">
+        <v>0</v>
+      </c>
+      <c r="E14" s="88">
         <v>2.6389999999999998</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="88">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="88">
         <v>0.1</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="88">
         <v>1096</v>
       </c>
-      <c r="I14" s="84">
-        <v>0</v>
-      </c>
-      <c r="J14" s="84">
+      <c r="I14" s="88">
+        <v>0</v>
+      </c>
+      <c r="J14" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="84">
-        <v>0</v>
-      </c>
-      <c r="D15" s="84">
-        <v>0</v>
-      </c>
-      <c r="E15" s="84">
+      <c r="C15" s="88">
+        <v>0</v>
+      </c>
+      <c r="D15" s="88">
+        <v>0</v>
+      </c>
+      <c r="E15" s="88">
         <v>5.4740000000000002</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="88">
         <v>0.85399999999999998</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="88">
         <v>1.4990000000000001</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="88">
         <v>120</v>
       </c>
-      <c r="I15" s="84">
-        <v>0</v>
-      </c>
-      <c r="J15" s="84">
+      <c r="I15" s="88">
+        <v>0</v>
+      </c>
+      <c r="J15" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="84">
-        <v>0</v>
-      </c>
-      <c r="D16" s="84">
-        <v>0</v>
-      </c>
-      <c r="E16" s="84">
+      <c r="C16" s="88">
+        <v>0</v>
+      </c>
+      <c r="D16" s="88">
+        <v>0</v>
+      </c>
+      <c r="E16" s="88">
         <v>6.5839999999999996</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="88">
         <v>1.2130000000000001</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="88">
         <v>3.0459999999999998</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="88">
         <v>392</v>
       </c>
-      <c r="I16" s="84">
-        <v>0</v>
-      </c>
-      <c r="J16" s="84">
+      <c r="I16" s="88">
+        <v>0</v>
+      </c>
+      <c r="J16" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="84">
-        <v>0</v>
-      </c>
-      <c r="D17" s="84">
-        <v>0</v>
-      </c>
-      <c r="E17" s="84">
+      <c r="C17" s="88">
+        <v>0</v>
+      </c>
+      <c r="D17" s="88">
+        <v>0</v>
+      </c>
+      <c r="E17" s="88">
         <v>7.407</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="88">
         <v>1.1639999999999999</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="88">
         <v>3.1349999999999998</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="88">
         <v>703</v>
       </c>
-      <c r="I17" s="84">
-        <v>0</v>
-      </c>
-      <c r="J17" s="84">
+      <c r="I17" s="88">
+        <v>0</v>
+      </c>
+      <c r="J17" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="84">
-        <v>0</v>
-      </c>
-      <c r="D18" s="84">
-        <v>0</v>
-      </c>
-      <c r="E18" s="84">
+      <c r="C18" s="88">
+        <v>0</v>
+      </c>
+      <c r="D18" s="88">
+        <v>0</v>
+      </c>
+      <c r="E18" s="88">
         <v>6.11</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="88">
         <v>1.387</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="88">
         <v>3.8490000000000002</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="88">
         <v>159</v>
       </c>
-      <c r="I18" s="84">
-        <v>0</v>
-      </c>
-      <c r="J18" s="84">
+      <c r="I18" s="88">
+        <v>0</v>
+      </c>
+      <c r="J18" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="84">
-        <v>0</v>
-      </c>
-      <c r="D19" s="84">
-        <v>0</v>
-      </c>
-      <c r="E19" s="84">
+      <c r="C19" s="88">
+        <v>0</v>
+      </c>
+      <c r="D19" s="88">
+        <v>0</v>
+      </c>
+      <c r="E19" s="88">
         <v>7.2549999999999999</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="88">
         <v>1.5</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="88">
         <v>4.2229999999999999</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="88">
         <v>285</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="88">
         <v>3</v>
       </c>
-      <c r="J19" s="84">
+      <c r="J19" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="84">
-        <v>0</v>
-      </c>
-      <c r="D20" s="84">
-        <v>0</v>
-      </c>
-      <c r="E20" s="84">
+      <c r="C20" s="88">
+        <v>0</v>
+      </c>
+      <c r="D20" s="88">
+        <v>0</v>
+      </c>
+      <c r="E20" s="88">
         <v>5.1509999999999998</v>
       </c>
-      <c r="F20" s="84">
+      <c r="F20" s="88">
         <v>1.101</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="88">
         <v>2.952</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="88">
         <v>391</v>
       </c>
-      <c r="I20" s="84">
-        <v>0</v>
-      </c>
-      <c r="J20" s="84">
+      <c r="I20" s="88">
+        <v>0</v>
+      </c>
+      <c r="J20" s="88">
         <v>0</v>
       </c>
     </row>
@@ -8929,13 +9209,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -9088,13 +9368,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -9254,13 +9534,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="83" t="s">
+      <c r="E35" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
@@ -9646,7 +9926,7 @@
       </c>
       <c r="B1">
         <f>SummaryReport!H15</f>
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9656,7 +9936,7 @@
       </c>
       <c r="B2">
         <f>SummaryReport!H16</f>
-        <v>392</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9666,7 +9946,7 @@
       </c>
       <c r="B3">
         <f>SummaryReport!H17</f>
-        <v>703</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9676,7 +9956,7 @@
       </c>
       <c r="B4">
         <f>SummaryReport!H18</f>
-        <v>159</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9686,7 +9966,7 @@
       </c>
       <c r="B5">
         <f>SummaryReport!H19</f>
-        <v>285</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9696,13 +9976,13 @@
       </c>
       <c r="B6">
         <f>SummaryReport!H20</f>
-        <v>391</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>SUM(B1:B6)*3</f>
-        <v>6150</v>
+        <v>2058</v>
       </c>
     </row>
   </sheetData>
